--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30929.40431089518</v>
+        <v>52799.56802548969</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11592476.04920234</v>
+        <v>11527572.41810336</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21830522.83473019</v>
+        <v>21838477.1172516</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4166003.230742301</v>
+        <v>4168409.416260459</v>
       </c>
     </row>
     <row r="11">
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.06191329280013</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K2" t="n">
-        <v>86.72591490550931</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L2" t="n">
-        <v>70.31665934305323</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M2" t="n">
-        <v>46.25150133729366</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N2" t="n">
-        <v>42.33948647951536</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O2" t="n">
-        <v>53.44993733213093</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P2" t="n">
-        <v>80.46778072209531</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q2" t="n">
-        <v>109.0872921559756</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>73.83937108913169</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K3" t="n">
-        <v>47.25897875440141</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L3" t="n">
-        <v>16.75508344424118</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.130000058643361</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P3" t="n">
-        <v>26.85597970277001</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q3" t="n">
-        <v>68.37594193669796</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>74.37427626277801</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L4" t="n">
-        <v>64.96559098237566</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M4" t="n">
-        <v>65.20591187910269</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N4" t="n">
-        <v>55.71856618250388</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O4" t="n">
-        <v>71.9833858147683</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P4" t="n">
-        <v>80.84873837615827</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>85.97480228639998</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K5" t="n">
-        <v>77.60291342766286</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L5" t="n">
-        <v>58.99876929881117</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M5" t="n">
-        <v>33.65816793912805</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N5" t="n">
-        <v>29.54237978104271</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O5" t="n">
-        <v>41.36599235998582</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P5" t="n">
-        <v>70.15441326031711</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.3423827029069</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>70.21392947460487</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K6" t="n">
-        <v>41.06252158333071</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L6" t="n">
-        <v>8.423182087426255</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P6" t="n">
-        <v>19.5283497406852</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.47761536183195</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>70.6365977934563</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L7" t="n">
-        <v>60.18264937930154</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M7" t="n">
-        <v>60.16297057655852</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N7" t="n">
-        <v>50.7955347526062</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O7" t="n">
-        <v>67.4361694735309</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P7" t="n">
-        <v>76.9578092403323</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639999</v>
       </c>
       <c r="K8" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L8" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M8" t="n">
-        <v>20.92686739226636</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N8" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O8" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P8" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q8" t="n">
-        <v>93.51262335026308</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>66.54876907979121</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K9" t="n">
-        <v>34.79817869043559</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>12.12044141380176</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q9" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>66.85797092510069</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L10" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M10" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N10" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O10" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P10" t="n">
-        <v>73.02425275703001</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L11" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P11" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K12" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M13" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N13" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O13" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P13" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L14" t="n">
-        <v>28.83625887535973</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09656339947139259</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K15" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>47.43596908875769</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M16" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N16" t="n">
-        <v>37.67551094615368</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O16" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P16" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L17" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P17" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K18" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L19" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M19" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N19" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O19" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P19" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L20" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P20" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K21" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M22" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N22" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O22" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P22" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L23" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P23" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K24" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L25" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M25" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N25" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O25" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P25" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L26" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P26" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K27" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L28" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M28" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N28" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O28" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P28" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L29" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P29" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K30" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L31" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M31" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N31" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O31" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P31" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L32" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P32" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K33" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L34" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M34" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N34" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O34" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P34" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L35" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P35" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K36" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L37" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M37" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N37" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O37" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P37" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L38" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M38" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P38" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K39" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L40" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M40" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N40" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O40" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P40" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L41" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P41" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K42" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L43" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M43" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N43" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O43" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P43" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>69.75247211164648</v>
+        <v>65.13728705726244</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28984570098882</v>
+        <v>46.37287966777356</v>
       </c>
       <c r="L44" t="n">
-        <v>28.8362588753597</v>
+        <v>20.25515087118043</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>42.66898511507466</v>
+        <v>34.84949581712632</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.70197082457096</v>
+        <v>74.82986001243393</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>60.55202075660908</v>
+        <v>57.80324815540079</v>
       </c>
       <c r="K45" t="n">
-        <v>24.54878065809741</v>
+        <v>19.8506904645741</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.42343072191045</v>
+        <v>46.70956981547315</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>60.67557455063191</v>
+        <v>57.84170511871758</v>
       </c>
       <c r="L46" t="n">
-        <v>47.4359690887577</v>
+        <v>43.80959188300443</v>
       </c>
       <c r="M46" t="n">
-        <v>46.72338342663512</v>
+        <v>42.89987711877137</v>
       </c>
       <c r="N46" t="n">
-        <v>37.67551094615366</v>
+        <v>33.94291907233412</v>
       </c>
       <c r="O46" t="n">
-        <v>55.31770395088348</v>
+        <v>51.87005121790979</v>
       </c>
       <c r="P46" t="n">
-        <v>66.5883684560963</v>
+        <v>63.63830594262306</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22559,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.2543098065221</v>
+        <v>414.3588981658848</v>
       </c>
       <c r="H2" t="n">
-        <v>328.737591844935</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I2" t="n">
-        <v>170.0563803341062</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>84.0108208899931</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S2" t="n">
-        <v>185.1290231762283</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T2" t="n">
-        <v>218.5063572696783</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22638,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.7825588849655</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H3" t="n">
-        <v>106.817768233445</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I3" t="n">
-        <v>70.08293774516886</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>65.32921403493339</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S3" t="n">
-        <v>161.2636171197674</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T3" t="n">
-        <v>197.9036731785617</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9044769310903</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.5206907817879</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H4" t="n">
-        <v>158.0458795257661</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I4" t="n">
-        <v>141.3076148215571</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J4" t="n">
-        <v>60.10977774604452</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.7817879815572</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R4" t="n">
-        <v>156.1475068297698</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S4" t="n">
-        <v>215.8207507508087</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T4" t="n">
-        <v>225.9361746006879</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>414.1825902111655</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H5" t="n">
-        <v>328.0030935389889</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I5" t="n">
-        <v>167.2914106341195</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>79.50566485817191</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S5" t="n">
-        <v>183.494712897039</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T5" t="n">
-        <v>218.1924047410046</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22875,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H6" t="n">
-        <v>106.4471622989392</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I6" t="n">
-        <v>68.761749468207</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>62.94669922618533</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S6" t="n">
-        <v>160.5508486671644</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T6" t="n">
-        <v>197.7490015828257</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9019523675037</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22954,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4885198403462</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7598506100387</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I7" t="n">
-        <v>140.3401468734729</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J7" t="n">
-        <v>57.83529218611377</v>
+        <v>60.10977774604451</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.08791033046781</v>
+        <v>46.78178798155719</v>
       </c>
       <c r="R7" t="n">
-        <v>154.7009843173077</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S7" t="n">
-        <v>215.2600989804104</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T7" t="n">
-        <v>225.7987169418005</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23033,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H8" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I8" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>74.95115227296735</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S8" t="n">
-        <v>181.8424978167795</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23112,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H9" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I9" t="n">
-        <v>67.42608682026646</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.5380826090839</v>
+        <v>62.94669922618534</v>
       </c>
       <c r="S9" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T9" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H10" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I10" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J10" t="n">
-        <v>55.53588833985387</v>
+        <v>57.83529218611378</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.36451971353327</v>
+        <v>44.08791033046782</v>
       </c>
       <c r="R10" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S10" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T10" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H11" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I11" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S11" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H12" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I12" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S12" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T12" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H13" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I13" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J13" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R13" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S13" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U13" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H14" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I14" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S14" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H15" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I15" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S15" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T15" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H16" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I16" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J16" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R16" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S16" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U16" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H17" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I17" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S17" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H18" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I18" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S18" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T18" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H19" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I19" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J19" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R19" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S19" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U19" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H20" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I21" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T21" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H22" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I22" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J22" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R22" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S22" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U22" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H23" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I23" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S23" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H24" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I24" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S24" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T24" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H25" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I25" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J25" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R25" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S25" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U25" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H26" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I26" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S26" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H27" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I27" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S27" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T27" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H28" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I28" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J28" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R28" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S28" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U28" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H29" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I29" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S29" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H30" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I30" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S30" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T30" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H31" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I31" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J31" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R31" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S31" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U31" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H32" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I32" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S32" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H33" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I33" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S33" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T33" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H34" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I34" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J34" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R34" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S34" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U34" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H35" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I35" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S35" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H36" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I36" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S36" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T36" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H37" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I37" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J37" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R37" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S37" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U37" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H38" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I38" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S38" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H39" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I39" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S39" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T39" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H40" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I40" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J40" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R40" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S40" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U40" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H41" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I41" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S41" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H42" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I42" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S42" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T42" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H43" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I43" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J43" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R43" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S43" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U43" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9370783158017</v>
       </c>
       <c r="H44" t="n">
-        <v>326.0456339133427</v>
+        <v>325.4887448405939</v>
       </c>
       <c r="I44" t="n">
-        <v>159.9226849201952</v>
+        <v>157.8263132881047</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>67.4992912993288</v>
+        <v>64.08352826102248</v>
       </c>
       <c r="S44" t="n">
-        <v>179.1392278518137</v>
+        <v>177.9001105814353</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3557120022016</v>
+        <v>217.1176764190494</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2364001718898</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6128250736805</v>
       </c>
       <c r="H45" t="n">
-        <v>105.4594865644317</v>
+        <v>105.1784969507712</v>
       </c>
       <c r="I45" t="n">
-        <v>65.24074378433592</v>
+        <v>64.2390324004872</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.59722706556381</v>
+        <v>54.79082880444759</v>
       </c>
       <c r="S45" t="n">
-        <v>158.6512997408977</v>
+        <v>158.1108860198022</v>
       </c>
       <c r="T45" t="n">
-        <v>197.336797223147</v>
+        <v>197.2195268076366</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8933102329794</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4027833335613</v>
+        <v>167.3783916561348</v>
       </c>
       <c r="H46" t="n">
-        <v>156.9975751224423</v>
+        <v>156.7807109358685</v>
       </c>
       <c r="I46" t="n">
-        <v>137.761816287615</v>
+        <v>137.0282920246438</v>
       </c>
       <c r="J46" t="n">
-        <v>51.77372115642321</v>
+        <v>50.04922956237019</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.90864702141808</v>
+        <v>34.86617665073242</v>
       </c>
       <c r="R46" t="n">
-        <v>150.8459592031442</v>
+        <v>149.7492206890403</v>
       </c>
       <c r="S46" t="n">
-        <v>213.7659454939867</v>
+        <v>213.3408650791996</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4323882309924</v>
+        <v>225.3281692456247</v>
       </c>
       <c r="U46" t="n">
-        <v>286.286945936951</v>
+        <v>286.2856154818187</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>361897.5871131801</v>
+        <v>363052.1115026793</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>361219.2621109697</v>
+        <v>361897.5871131801</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>360641.1277562332</v>
+        <v>361219.2621109697</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>359955.7755226666</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>359955.7755226666</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>359955.7755226666</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>359955.7755226666</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>359955.7755226666</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>359955.7755226666</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>359955.7755226666</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>359955.7755226666</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>359955.7755226666</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>359955.7755226666</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>359955.7755226666</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>359955.7755226666</v>
+        <v>360079.9137352218</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>70000.02111109272</v>
+      </c>
+      <c r="C2" t="n">
         <v>70529.94656182197</v>
       </c>
-      <c r="C2" t="n">
-        <v>70893.33345427414</v>
-      </c>
       <c r="D2" t="n">
-        <v>71260.70145735363</v>
+        <v>70893.33345427415</v>
       </c>
       <c r="E2" t="n">
-        <v>71861.77022901649</v>
+        <v>71864.55661388765</v>
       </c>
       <c r="F2" t="n">
-        <v>71861.77022901647</v>
+        <v>71864.55661388766</v>
       </c>
       <c r="G2" t="n">
-        <v>71861.77022901647</v>
+        <v>71864.55661388765</v>
       </c>
       <c r="H2" t="n">
-        <v>71861.77022901647</v>
+        <v>71864.55661388765</v>
       </c>
       <c r="I2" t="n">
-        <v>71861.77022901646</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="J2" t="n">
-        <v>71861.77022901646</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="K2" t="n">
-        <v>71861.77022901649</v>
+        <v>71864.55661388765</v>
       </c>
       <c r="L2" t="n">
-        <v>71861.77022901647</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="M2" t="n">
-        <v>71861.77022901646</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="N2" t="n">
-        <v>71861.77022901646</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="O2" t="n">
-        <v>71861.77022901647</v>
+        <v>71864.55661388766</v>
       </c>
       <c r="P2" t="n">
-        <v>71861.77022901647</v>
+        <v>72137.28643912681</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251306.7941829319</v>
+        <v>226237.0968787037</v>
       </c>
       <c r="C3" t="n">
-        <v>16245.3667340218</v>
+        <v>23690.54434158194</v>
       </c>
       <c r="D3" t="n">
-        <v>15446.02550868466</v>
+        <v>15278.63930251696</v>
       </c>
       <c r="E3" t="n">
-        <v>23707.69197657893</v>
+        <v>38307.52917829801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>8911.728550812868</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>24718.67613239747</v>
+      </c>
+      <c r="C4" t="n">
         <v>21002.84539770707</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>18568.15041531109</v>
       </c>
-      <c r="D4" t="n">
-        <v>16214.40404569023</v>
-      </c>
       <c r="E4" t="n">
-        <v>12623.88608241976</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="F4" t="n">
-        <v>12623.88608241976</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="G4" t="n">
-        <v>12623.88608241976</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="H4" t="n">
-        <v>12623.88608241976</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="I4" t="n">
-        <v>12623.88608241976</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="J4" t="n">
-        <v>12623.88608241976</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="K4" t="n">
-        <v>12623.88608241976</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="L4" t="n">
-        <v>12623.88608241976</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="M4" t="n">
-        <v>12623.88608241976</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="N4" t="n">
-        <v>12623.88608241976</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="O4" t="n">
-        <v>12623.88608241976</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="P4" t="n">
-        <v>12623.88608241976</v>
+        <v>11416.36261277497</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>38745.80483114667</v>
+      </c>
+      <c r="C5" t="n">
         <v>39312.96135688073</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>39701.87879260092</v>
       </c>
-      <c r="D5" t="n">
-        <v>40095.05704060869</v>
-      </c>
       <c r="E5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="F5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="G5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="H5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="I5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="J5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="K5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="L5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="M5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="N5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="O5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="P5" t="n">
-        <v>7110.755217351149</v>
+        <v>7405.628423185238</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-241092.6543756977</v>
+        <v>-219701.5567311551</v>
       </c>
       <c r="C6" t="n">
-        <v>-3622.062487659678</v>
+        <v>-13476.40453434777</v>
       </c>
       <c r="D6" t="n">
-        <v>-494.7851376299514</v>
+        <v>-2655.335056154821</v>
       </c>
       <c r="E6" t="n">
-        <v>28419.43695266666</v>
+        <v>13833.70845974586</v>
       </c>
       <c r="F6" t="n">
-        <v>52127.12892924557</v>
+        <v>52141.23763804389</v>
       </c>
       <c r="G6" t="n">
-        <v>52127.12892924557</v>
+        <v>52141.23763804387</v>
       </c>
       <c r="H6" t="n">
-        <v>52127.12892924557</v>
+        <v>52141.23763804387</v>
       </c>
       <c r="I6" t="n">
-        <v>52127.12892924555</v>
+        <v>52141.2376380439</v>
       </c>
       <c r="J6" t="n">
-        <v>52127.12892924555</v>
+        <v>52141.2376380439</v>
       </c>
       <c r="K6" t="n">
-        <v>52127.12892924558</v>
+        <v>52141.23763804387</v>
       </c>
       <c r="L6" t="n">
-        <v>52127.12892924557</v>
+        <v>52141.2376380439</v>
       </c>
       <c r="M6" t="n">
-        <v>52127.12892924555</v>
+        <v>52141.2376380439</v>
       </c>
       <c r="N6" t="n">
-        <v>52127.12892924555</v>
+        <v>52141.2376380439</v>
       </c>
       <c r="O6" t="n">
-        <v>52127.12892924557</v>
+        <v>52141.23763804389</v>
       </c>
       <c r="P6" t="n">
-        <v>52127.12892924557</v>
+        <v>44403.56685235372</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>234.7800381259942</v>
+      </c>
+      <c r="C3" t="n">
         <v>260.7963925174648</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>278.6366418624276</v>
       </c>
-      <c r="D3" t="n">
-        <v>296.6723413123253</v>
-      </c>
       <c r="E3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="F3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="G3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="H3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="I3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="J3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="K3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="L3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="M3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="N3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="O3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="P3" t="n">
-        <v>326.1814319885848</v>
+        <v>339.7077258341852</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>260.7963925174648</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="C3" t="n">
+        <v>26.01635439147063</v>
+      </c>
+      <c r="D3" t="n">
         <v>17.84024934496279</v>
       </c>
-      <c r="D3" t="n">
-        <v>18.03569944989766</v>
-      </c>
       <c r="E3" t="n">
-        <v>29.50909067625952</v>
+        <v>47.68158592673666</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>13.38949804502096</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.048427708612923</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H2" t="n">
-        <v>10.7372102708321</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I2" t="n">
-        <v>40.41950923629976</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J2" t="n">
-        <v>88.98399123388616</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K2" t="n">
-        <v>133.3639361394712</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L2" t="n">
-        <v>165.449755626934</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M2" t="n">
-        <v>184.0947318899791</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N2" t="n">
-        <v>187.0735771170756</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O2" t="n">
-        <v>176.6482740895558</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P2" t="n">
-        <v>150.7652150331742</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.2183977184739</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R2" t="n">
-        <v>65.85829705115658</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S2" t="n">
-        <v>23.89104641001701</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T2" t="n">
-        <v>4.589492294453073</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H3" t="n">
-        <v>5.417676003051487</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I3" t="n">
-        <v>19.31369510624622</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J3" t="n">
-        <v>52.99825557753501</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K3" t="n">
-        <v>90.58246021995758</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L3" t="n">
-        <v>121.799296335633</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>133.4662443858011</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P3" t="n">
-        <v>107.1184277115602</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.60583214932356</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R3" t="n">
-        <v>34.82862011770975</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S3" t="n">
-        <v>10.4195539840704</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T3" t="n">
-        <v>2.261055516259907</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H4" t="n">
-        <v>4.181292981673455</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I4" t="n">
-        <v>14.14286010570121</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J4" t="n">
-        <v>33.24940237062825</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K4" t="n">
-        <v>54.63898190775737</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L4" t="n">
-        <v>69.91908529886263</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M4" t="n">
-        <v>73.71987206850237</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N4" t="n">
-        <v>71.96697828272931</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O4" t="n">
-        <v>66.47315263707449</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P4" t="n">
-        <v>56.87926567298935</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.38025527013718</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R4" t="n">
-        <v>21.14588454739968</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S4" t="n">
-        <v>8.195847286163604</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T4" t="n">
-        <v>2.009414827593581</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.120147303969557</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H5" t="n">
-        <v>11.47170857677823</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I5" t="n">
-        <v>43.1844789362864</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J5" t="n">
-        <v>95.07110224028631</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K5" t="n">
-        <v>142.4869376173177</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L5" t="n">
-        <v>176.7676456711761</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M5" t="n">
-        <v>196.6880652881447</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N5" t="n">
-        <v>199.8706838155482</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O5" t="n">
-        <v>188.7322190617009</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P5" t="n">
-        <v>161.0785824949524</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.9633071715426</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R5" t="n">
-        <v>70.36345308297777</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S5" t="n">
-        <v>25.52535668920632</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T5" t="n">
-        <v>4.90344482312674</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H6" t="n">
-        <v>5.788281937557223</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I6" t="n">
-        <v>20.63488338320808</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J6" t="n">
-        <v>56.62369719206183</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K6" t="n">
-        <v>96.77891739102829</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L6" t="n">
-        <v>130.1311976924479</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
@@ -31379,25 +31381,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P6" t="n">
-        <v>114.446057673645</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.50415872418957</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R6" t="n">
-        <v>37.2111349264578</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S6" t="n">
-        <v>11.1323224366734</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T6" t="n">
-        <v>2.415727111995952</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H7" t="n">
-        <v>4.467321897400891</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I7" t="n">
-        <v>15.11032805378542</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J7" t="n">
-        <v>35.52388793055901</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K7" t="n">
-        <v>58.37666037707908</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L7" t="n">
-        <v>74.70202690193675</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M7" t="n">
-        <v>78.76281337104653</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N7" t="n">
-        <v>76.89000971262699</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O7" t="n">
-        <v>71.02036897831189</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P7" t="n">
-        <v>60.77019480881533</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.07413292122657</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R7" t="n">
-        <v>22.59240705986175</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S7" t="n">
-        <v>8.756499056561861</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T7" t="n">
-        <v>2.146872486480999</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H8" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I8" t="n">
-        <v>45.97974045605396</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J8" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028629</v>
       </c>
       <c r="K8" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L8" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M8" t="n">
-        <v>209.4193658350064</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N8" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O8" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P8" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q8" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R8" t="n">
-        <v>74.91796566818233</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S8" t="n">
-        <v>27.17757176946579</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T8" t="n">
-        <v>5.220836880782728</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H9" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557224</v>
       </c>
       <c r="I9" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J9" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K9" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -31619,22 +31621,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R9" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S9" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T9" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109827</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125744</v>
       </c>
       <c r="H10" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I10" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J10" t="n">
-        <v>37.82329177681891</v>
+        <v>35.523887930559</v>
       </c>
       <c r="K10" t="n">
-        <v>62.15528724543469</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L10" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M10" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N10" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O10" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P10" t="n">
-        <v>64.7037512921176</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122656</v>
       </c>
       <c r="R10" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S10" t="n">
-        <v>9.323293086815202</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T10" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H11" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I11" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J11" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K11" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L11" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M11" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P11" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R11" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S11" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T11" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H12" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I12" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J12" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K12" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31859,19 +31861,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R12" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S12" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T12" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H13" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I13" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J13" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K13" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L13" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M13" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N13" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O13" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P13" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R13" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S13" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T13" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H14" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J14" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K14" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L14" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M14" t="n">
-        <v>230.2496698278013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P14" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S14" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T14" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H15" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I15" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J15" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K15" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32096,19 +32098,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S15" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T15" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I16" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J16" t="n">
-        <v>41.58545896024956</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K16" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>87.4487071924806</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M16" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N16" t="n">
-        <v>90.01003351907951</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O16" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P16" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R16" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S16" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T16" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H17" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I17" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J17" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K17" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L17" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M17" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P17" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R17" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S17" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T17" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H18" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I18" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J18" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K18" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32333,19 +32335,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R18" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S18" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T18" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H19" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I19" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J19" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K19" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L19" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M19" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N19" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O19" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P19" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R19" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S19" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T19" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H20" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I20" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J20" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K20" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L20" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M20" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P20" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R20" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S20" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T20" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H21" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I21" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J21" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K21" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32570,19 +32572,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R21" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S21" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T21" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I22" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J22" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K22" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L22" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M22" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N22" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O22" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P22" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R22" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S22" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T22" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H23" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I23" t="n">
-        <v>50.55320465021072</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J23" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K23" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L23" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M23" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P23" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R23" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S23" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T23" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.701597797107522</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H24" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I24" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J24" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K24" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32807,19 +32809,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R24" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S24" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T24" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H25" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I25" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J25" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K25" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L25" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M25" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N25" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O25" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P25" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R25" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S25" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T25" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H26" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I26" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J26" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K26" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L26" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M26" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P26" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q26" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R26" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S26" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T26" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H27" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I27" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J27" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K27" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33044,19 +33046,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R27" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S27" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T27" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H28" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I28" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J28" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K28" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L28" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M28" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N28" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O28" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P28" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R28" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S28" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T28" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H29" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I29" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J29" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K29" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L29" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M29" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P29" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q29" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R29" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S29" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T29" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H30" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I30" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J30" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K30" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33281,19 +33283,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R30" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S30" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T30" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H31" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I31" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J31" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K31" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L31" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M31" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N31" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O31" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P31" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R31" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S31" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T31" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H32" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I32" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J32" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K32" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L32" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M32" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P32" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R32" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S32" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T32" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H33" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I33" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J33" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K33" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33518,19 +33520,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R33" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S33" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T33" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H34" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I34" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J34" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K34" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L34" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M34" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N34" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O34" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P34" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R34" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S34" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T34" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H35" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I35" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J35" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K35" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L35" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M35" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P35" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R35" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S35" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T35" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H36" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I36" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J36" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K36" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33755,19 +33757,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R36" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S36" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T36" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H37" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I37" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J37" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K37" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L37" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M37" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N37" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O37" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P37" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R37" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S37" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T37" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H38" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I38" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J38" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K38" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L38" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M38" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P38" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q38" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R38" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S38" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T38" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H39" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I39" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J39" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K39" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33992,19 +33994,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R39" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S39" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T39" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H40" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I40" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J40" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K40" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L40" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M40" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N40" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O40" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P40" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R40" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S40" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T40" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H41" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I41" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J41" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K41" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L41" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M41" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P41" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q41" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R41" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S41" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T41" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H42" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I42" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J42" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K42" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34229,19 +34231,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R42" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S42" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T42" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H43" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I43" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J43" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K43" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L43" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M43" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N43" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O43" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P43" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R43" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S43" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T43" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.311282138647576</v>
+        <v>1.365659199333407</v>
       </c>
       <c r="H44" t="n">
-        <v>13.42916820242449</v>
+        <v>13.98605727517326</v>
       </c>
       <c r="I44" t="n">
-        <v>50.55320465021072</v>
+        <v>52.64957628230122</v>
       </c>
       <c r="J44" t="n">
-        <v>111.2934324150398</v>
+        <v>115.9086174694238</v>
       </c>
       <c r="K44" t="n">
-        <v>166.8000053439917</v>
+        <v>173.716971377207</v>
       </c>
       <c r="L44" t="n">
-        <v>206.9301560946275</v>
+        <v>215.5112640988068</v>
       </c>
       <c r="M44" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>220.9362884380569</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>188.5640106401949</v>
+        <v>196.3834999381432</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.6037190498785</v>
+        <v>147.4758298620156</v>
       </c>
       <c r="R44" t="n">
-        <v>82.36982664182088</v>
+        <v>85.7855896801272</v>
       </c>
       <c r="S44" t="n">
-        <v>29.88084173443167</v>
+        <v>31.11995900481004</v>
       </c>
       <c r="T44" t="n">
-        <v>5.740137561929767</v>
+        <v>5.978173145081992</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1092527359466725</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7306920895301343</v>
       </c>
       <c r="H45" t="n">
-        <v>6.775957672064753</v>
+        <v>7.056947285725245</v>
       </c>
       <c r="I45" t="n">
-        <v>24.15588906707916</v>
+        <v>25.15760045092787</v>
       </c>
       <c r="J45" t="n">
-        <v>66.28560591005761</v>
+        <v>69.0343785112659</v>
       </c>
       <c r="K45" t="n">
-        <v>113.2926583162616</v>
+        <v>117.9907485097849</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34466,19 +34468,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.55834336411107</v>
+        <v>93.27220427054837</v>
       </c>
       <c r="R45" t="n">
-        <v>43.56060708707933</v>
+        <v>45.36700534819555</v>
       </c>
       <c r="S45" t="n">
-        <v>13.03187136294015</v>
+        <v>13.5722850840356</v>
       </c>
       <c r="T45" t="n">
-        <v>2.827931471674616</v>
+        <v>2.945201887185058</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04807184799540359</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.6125877023239404</v>
       </c>
       <c r="H46" t="n">
-        <v>5.229597384997313</v>
+        <v>5.446461571571039</v>
       </c>
       <c r="I46" t="n">
-        <v>17.68865863964326</v>
+        <v>18.42218290261451</v>
       </c>
       <c r="J46" t="n">
-        <v>41.58545896024957</v>
+        <v>43.30995055430259</v>
       </c>
       <c r="K46" t="n">
-        <v>68.33768361990347</v>
+        <v>71.1715530518178</v>
       </c>
       <c r="L46" t="n">
-        <v>87.44870719248058</v>
+        <v>91.07508439823386</v>
       </c>
       <c r="M46" t="n">
-        <v>92.20240052096993</v>
+        <v>96.02590682883368</v>
       </c>
       <c r="N46" t="n">
-        <v>90.01003351907953</v>
+        <v>93.74262539289907</v>
       </c>
       <c r="O46" t="n">
-        <v>83.13883450095931</v>
+        <v>86.586487233933</v>
       </c>
       <c r="P46" t="n">
-        <v>71.13963559305131</v>
+        <v>74.08969810652455</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.2533962302763</v>
+        <v>51.29586660096196</v>
       </c>
       <c r="R46" t="n">
-        <v>26.44743217402524</v>
+        <v>27.54417068812917</v>
       </c>
       <c r="S46" t="n">
-        <v>10.25065254298552</v>
+        <v>10.67573295777267</v>
       </c>
       <c r="T46" t="n">
-        <v>2.513201197289095</v>
+        <v>2.617420182656836</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03341387467221497</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52799.56802548969</v>
+        <v>-69113.86367215209</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11527572.41810336</v>
+        <v>11757712.82212335</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21838477.1172516</v>
+        <v>21176269.34299449</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4168409.416260459</v>
+        <v>4406656.735772076</v>
       </c>
     </row>
     <row r="11">
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>43.85944218949141</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2408,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>43.85944218949141</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>17.62325037119977</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2757,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>44.00343544142167</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>43.85944218949141</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
     </row>
     <row r="31">
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>43.85944218949141</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>43.85944218949141</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
     </row>
     <row r="35">
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>43.85944218949141</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>44.00343544142167</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>43.85944218949141</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>17.62325037119977</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>43.85944218949141</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>46.49613729883802</v>
       </c>
     </row>
     <row r="46">
@@ -4179,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>17.62325037119979</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>69.12296495893617</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>118.4200219157896</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>50.30614171732424</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>71.84601783796424</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>121.1430747948177</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>170.4401317516711</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>53.28065751902341</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>102.5777144758769</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>149.8829711516453</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>69.12296495893617</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>118.4200219157896</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>50.30614171732424</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>71.84601783796424</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>121.1430747948177</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>170.4401317516711</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>72.08285045946741</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>51.2888572379384</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>100.5859141947918</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>149.8829711516453</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>172.6788242516385</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>172.6788242516385</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>122.380837355553</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.08285045946741</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>72.08285045946741</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>72.08285045946741</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>72.08285045946741</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>72.08285045946741</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>72.08285045946741</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>69.12296495893617</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>118.4200219157896</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>167.717078872643</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>167.717078872643</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>98.72950204555013</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>98.72950204555013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>98.72950204555013</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>98.72950204555013</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>48.43151514946459</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>50.30614171732424</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>99.60319867417768</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>121.1430747948177</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>170.4401317516711</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>53.28065751902341</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>102.5777144758769</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>151.8747714327303</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>69.12296495893617</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>118.4200219157896</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>22.5489608811108</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>71.84601783796424</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>121.1430747948177</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>170.4401317516711</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>51.2888572379384</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>100.5859141947918</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>149.8829711516453</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>69.12296495893617</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>118.4200219157896</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>50.30614171732424</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>99.60319867417768</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>148.9002556310311</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>198.1973125878845</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>53.28065751902341</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>100.5859141947918</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>100.5859141947918</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>100.5859141947918</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>149.8829711516453</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>51.2888572379384</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>100.5859141947918</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>149.8829711516453</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>50.30614171732424</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>99.60319867417768</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>148.9002556310311</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>170.4401317516711</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>51.2888572379384</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>100.5859141947918</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>149.8829711516453</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>48.43151514946459</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>48.43151514946459</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>48.43151514946459</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>48.43151514946459</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>48.43151514946459</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>48.43151514946459</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>48.43151514946459</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>69.12296495893617</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>118.4200219157896</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>167.717078872643</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>149.0274889416357</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>98.72950204555013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>48.43151514946459</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>48.43151514946459</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>48.43151514946459</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>50.30614171732424</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>99.60319867417768</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>148.9002556310311</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>170.4401317516711</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>53.28065751902341</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>100.5859141947918</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>100.5859141947918</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>149.8829711516453</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>172.6788242516385</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.380837355553</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>72.08285045946741</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>21.78486356338187</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>21.78486356338187</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>21.78486356338187</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>21.78486356338187</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>53.28065751902341</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>102.5777144758769</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>151.8747714327303</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>50.30614171732424</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>71.84601783796424</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>121.1430747948177</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>170.4401317516711</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>151.5453696056926</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>151.5453696056926</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>151.5453696056926</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>151.5453696056926</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>151.5453696056926</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>101.2473827096071</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>50.94939581352151</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>51.2888572379384</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>100.5859141947918</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>149.8829711516453</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>172.6788242516385</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K2" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L2" t="n">
-        <v>86.82148686318186</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M2" t="n">
-        <v>64.61630209323863</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N2" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O2" t="n">
-        <v>71.0718992657024</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P2" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K3" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L3" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M3" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P3" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.51914927829571</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L4" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M4" t="n">
-        <v>72.56001021962938</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N4" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O4" t="n">
-        <v>78.61457070130248</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P4" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P11" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8853,10 +8853,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M13" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N13" t="n">
         <v>37.63776203285606</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P14" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9090,10 +9090,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M16" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N16" t="n">
         <v>37.63776203285606</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P20" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9564,10 +9564,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M22" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N22" t="n">
         <v>37.63776203285606</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>69.70579724700553</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K23" t="n">
-        <v>53.21989217810253</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L23" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.069265482343781</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>42.58990408143413</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.64258426171736</v>
+        <v>92.88280094721969</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>60.52422152698378</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K24" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.38587124096644</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>60.64691470913344</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L25" t="n">
-        <v>47.39929435887774</v>
+        <v>78.2821831083989</v>
       </c>
       <c r="M25" t="n">
-        <v>46.68471506615327</v>
+        <v>76.5395450441941</v>
       </c>
       <c r="N25" t="n">
-        <v>37.63776203285606</v>
+        <v>65.9548053767935</v>
       </c>
       <c r="O25" t="n">
-        <v>55.28283671961447</v>
+        <v>87.09780125070273</v>
       </c>
       <c r="P25" t="n">
-        <v>66.55853351624533</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>69.70579724700553</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K26" t="n">
-        <v>53.21989217810253</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L26" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>42.58990408143413</v>
+        <v>44.67424062394011</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.64258426171739</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>60.52422152698378</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K27" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.38587124096644</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>60.64691470913344</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L28" t="n">
-        <v>47.39929435887775</v>
+        <v>76.27026363255546</v>
       </c>
       <c r="M28" t="n">
-        <v>46.68471506615329</v>
+        <v>76.5395450441941</v>
       </c>
       <c r="N28" t="n">
-        <v>37.63776203285606</v>
+        <v>67.96672485263694</v>
       </c>
       <c r="O28" t="n">
-        <v>55.28283671961447</v>
+        <v>87.09780125070273</v>
       </c>
       <c r="P28" t="n">
-        <v>66.55853351624533</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>69.70579724700553</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K29" t="n">
-        <v>53.21989217810253</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L29" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.069265482343809</v>
+        <v>11.0834264237925</v>
       </c>
       <c r="P29" t="n">
-        <v>42.58990408143413</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.64258426171739</v>
+        <v>81.79937452342719</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>60.52422152698378</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K30" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.38587124096644</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>60.64691470913344</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L31" t="n">
-        <v>47.39929435887775</v>
+        <v>78.2821831083989</v>
       </c>
       <c r="M31" t="n">
-        <v>46.68471506615329</v>
+        <v>76.5395450441941</v>
       </c>
       <c r="N31" t="n">
-        <v>37.63776203285606</v>
+        <v>67.96672485263694</v>
       </c>
       <c r="O31" t="n">
-        <v>55.28283671961447</v>
+        <v>85.08588177485927</v>
       </c>
       <c r="P31" t="n">
-        <v>66.55853351624533</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>69.70579724700553</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K32" t="n">
-        <v>53.21989217810253</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L32" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>42.58990408143413</v>
+        <v>44.67424062394011</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.64258426171739</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>60.52422152698378</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K33" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.38587124096644</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>60.64691470913344</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L34" t="n">
-        <v>47.39929435887775</v>
+        <v>76.27026363255546</v>
       </c>
       <c r="M34" t="n">
-        <v>46.68471506615329</v>
+        <v>76.5395450441941</v>
       </c>
       <c r="N34" t="n">
-        <v>37.63776203285606</v>
+        <v>67.96672485263694</v>
       </c>
       <c r="O34" t="n">
-        <v>55.28283671961447</v>
+        <v>87.09780125070273</v>
       </c>
       <c r="P34" t="n">
-        <v>66.55853351624533</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>69.70579724700553</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K35" t="n">
-        <v>53.21989217810253</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L35" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>42.58990408143413</v>
+        <v>44.67424062394011</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.64258426171739</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>60.52422152698378</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K36" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.38587124096644</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>60.64691470913344</v>
+        <v>95.66285413274993</v>
       </c>
       <c r="L37" t="n">
-        <v>47.39929435887775</v>
+        <v>76.27026363255546</v>
       </c>
       <c r="M37" t="n">
-        <v>46.68471506615329</v>
+        <v>26.74453801706942</v>
       </c>
       <c r="N37" t="n">
-        <v>37.63776203285606</v>
+        <v>18.17171782551226</v>
       </c>
       <c r="O37" t="n">
-        <v>55.28283671961447</v>
+        <v>87.09780125070273</v>
       </c>
       <c r="P37" t="n">
-        <v>66.55853351624533</v>
+        <v>100.9685080396867</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>69.70579724700553</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K38" t="n">
-        <v>53.21989217810253</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L38" t="n">
-        <v>28.74947534450564</v>
+        <v>31.78075680389462</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.069265482343809</v>
+        <v>11.0834264237925</v>
       </c>
       <c r="P38" t="n">
-        <v>42.58990408143413</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.64258426171739</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>60.52422152698378</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K39" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.38587124096644</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>60.64691470913344</v>
+        <v>93.65093465690649</v>
       </c>
       <c r="L40" t="n">
-        <v>47.39929435887775</v>
+        <v>78.2821831083989</v>
       </c>
       <c r="M40" t="n">
-        <v>46.68471506615329</v>
+        <v>76.5395450441941</v>
       </c>
       <c r="N40" t="n">
-        <v>37.63776203285606</v>
+        <v>67.96672485263694</v>
       </c>
       <c r="O40" t="n">
-        <v>55.28283671961447</v>
+        <v>37.30279422357805</v>
       </c>
       <c r="P40" t="n">
-        <v>66.55853351624533</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>69.70579724700553</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K41" t="n">
-        <v>53.21989217810253</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L41" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.069265482343809</v>
+        <v>11.0834264237925</v>
       </c>
       <c r="P41" t="n">
-        <v>42.58990408143413</v>
+        <v>33.59081420014761</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.64258426171739</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>60.52422152698378</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K42" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.38587124096644</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>60.64691470913344</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L43" t="n">
-        <v>47.39929435887775</v>
+        <v>78.2821831083989</v>
       </c>
       <c r="M43" t="n">
-        <v>46.68471506615329</v>
+        <v>74.52762556835066</v>
       </c>
       <c r="N43" t="n">
-        <v>37.63776203285606</v>
+        <v>18.17171782551226</v>
       </c>
       <c r="O43" t="n">
-        <v>55.28283671961447</v>
+        <v>87.09780125070273</v>
       </c>
       <c r="P43" t="n">
-        <v>66.55853351624533</v>
+        <v>100.9685080396867</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>65.13728705726244</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K44" t="n">
-        <v>46.37287966777356</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L44" t="n">
-        <v>20.25515087118043</v>
+        <v>33.79267627973806</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>9.071506947949054</v>
       </c>
       <c r="P44" t="n">
-        <v>34.84949581712632</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q44" t="n">
-        <v>74.82986001243393</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>57.80324815540079</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K45" t="n">
-        <v>19.8506904645741</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.70956981547315</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>57.84170511871758</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L46" t="n">
-        <v>43.80959188300443</v>
+        <v>28.48717608127421</v>
       </c>
       <c r="M46" t="n">
-        <v>42.89987711877137</v>
+        <v>74.52762556835066</v>
       </c>
       <c r="N46" t="n">
-        <v>33.94291907233412</v>
+        <v>67.96672485263694</v>
       </c>
       <c r="O46" t="n">
-        <v>51.87005121790979</v>
+        <v>87.09780125070273</v>
       </c>
       <c r="P46" t="n">
-        <v>63.63830594262306</v>
+        <v>100.9685080396867</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H2" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I2" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>90.58066941881005</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S2" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T2" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H3" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I3" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S3" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T3" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U3" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H4" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J4" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604451</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>50.71025749466926</v>
+        <v>46.78178798155719</v>
       </c>
       <c r="R4" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S4" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T4" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S11" t="n">
         <v>179.1266962566148</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S12" t="n">
         <v>158.6458343615066</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S14" t="n">
         <v>179.1266962566148</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S15" t="n">
         <v>158.6458343615066</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S20" t="n">
         <v>179.1266962566148</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S21" t="n">
         <v>158.6458343615066</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.9909054436208</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H23" t="n">
-        <v>326.0400019133721</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I23" t="n">
-        <v>159.9014836333536</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>67.46474657889402</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S23" t="n">
-        <v>179.1266962566148</v>
+        <v>128.80506575973</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3533046710778</v>
+        <v>166.3169052439262</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2407063421153</v>
+        <v>201.4230125321232</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>277.9572514430103</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24296,16 +24296,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>95.2742053662592</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6416251260792</v>
+        <v>86.6948868618878</v>
       </c>
       <c r="H24" t="n">
-        <v>105.4566448252536</v>
+        <v>54.19623348224739</v>
       </c>
       <c r="I24" t="n">
-        <v>65.23061315193451</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>56.57895837355434</v>
+        <v>3.298869728286668</v>
       </c>
       <c r="S24" t="n">
-        <v>158.6458343615066</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3356112293665</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4025366526095</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H25" t="n">
-        <v>156.9953819045248</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I25" t="n">
-        <v>137.7543979186262</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J25" t="n">
-        <v>51.75628081312638</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,28 +24408,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>36.88799085553058</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R25" t="n">
-        <v>150.8348675305268</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S25" t="n">
-        <v>213.761646517762</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4313342305617</v>
+        <v>224.8878160949084</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2869324816264</v>
+        <v>236.4849869251104</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>202.3426362967033</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>236.7279913094663</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>181.8502131995457</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.9909054436208</v>
+        <v>363.9123136306533</v>
       </c>
       <c r="H26" t="n">
-        <v>326.0400019133721</v>
+        <v>279.2762970358678</v>
       </c>
       <c r="I26" t="n">
-        <v>159.9014836333536</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>67.46474657889404</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S26" t="n">
-        <v>179.1266962566148</v>
+        <v>122.8695009220967</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3533046710778</v>
+        <v>166.3169052439262</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24527,22 +24527,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>97.65005853751407</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>113.7856382659095</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6416251260792</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H27" t="n">
-        <v>105.4566448252536</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I27" t="n">
-        <v>65.23061315193451</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>56.57895837355435</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S27" t="n">
-        <v>158.6458343615066</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3356112293665</v>
+        <v>146.9290208388017</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8952049732688</v>
+        <v>176.0902156279161</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>149.623570727428</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4025366526095</v>
+        <v>117.4803232533106</v>
       </c>
       <c r="H28" t="n">
-        <v>156.9953819045248</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I28" t="n">
-        <v>137.7543979186262</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J28" t="n">
-        <v>51.75628081312638</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>36.88799085553058</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>150.8348675305268</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S28" t="n">
-        <v>213.761646517762</v>
+        <v>161.7497793501111</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4313342305617</v>
+        <v>175.0928090677837</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>338.7304062220589</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.9909054436208</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H29" t="n">
-        <v>326.0400019133721</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I29" t="n">
-        <v>159.9014836333536</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>67.46474657889404</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.1266962566148</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3533046710778</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2407063421153</v>
+        <v>201.4230125321232</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>336.4429316289289</v>
       </c>
     </row>
     <row r="30">
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6416251260792</v>
+        <v>86.6948868618878</v>
       </c>
       <c r="H30" t="n">
-        <v>105.4566448252536</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I30" t="n">
-        <v>65.23061315193451</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>56.57895837355435</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S30" t="n">
-        <v>158.6458343615066</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3356112293665</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8952049732688</v>
+        <v>176.0902156279161</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>188.9411449599339</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>155.8876887501797</v>
       </c>
     </row>
     <row r="31">
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4025366526095</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H31" t="n">
-        <v>156.9953819045248</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I31" t="n">
-        <v>137.7543979186262</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J31" t="n">
-        <v>51.75628081312638</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.88799085553058</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R31" t="n">
-        <v>150.8348675305268</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S31" t="n">
-        <v>213.761646517762</v>
+        <v>167.6853441877443</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4313342305617</v>
+        <v>175.0928090677837</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2869324816264</v>
+        <v>236.4849869251104</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>168.7896463249701</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>315.4778847438829</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.9909054436208</v>
+        <v>363.9123136306533</v>
       </c>
       <c r="H32" t="n">
-        <v>326.0400019133721</v>
+        <v>273.3407321982345</v>
       </c>
       <c r="I32" t="n">
-        <v>159.9014836333536</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>67.46474657889404</v>
+        <v>5.791571585703004</v>
       </c>
       <c r="S32" t="n">
-        <v>179.1266962566148</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3533046710778</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6416251260792</v>
+        <v>86.6948868618878</v>
       </c>
       <c r="H33" t="n">
-        <v>105.4566448252536</v>
+        <v>60.13179831988068</v>
       </c>
       <c r="I33" t="n">
-        <v>65.23061315193451</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>56.57895837355435</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S33" t="n">
-        <v>158.6458343615066</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3356112293665</v>
+        <v>146.9290208388017</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>183.0055801223006</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25086,19 +25086,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>101.5616058334398</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4025366526095</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H34" t="n">
-        <v>156.9953819045248</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I34" t="n">
-        <v>137.7543979186262</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J34" t="n">
-        <v>51.75628081312638</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>36.88799085553058</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R34" t="n">
-        <v>150.8348675305268</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S34" t="n">
-        <v>213.761646517762</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4313342305617</v>
+        <v>224.8878160949084</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>236.7279913094663</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>175.9146483619125</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>168.7896463249701</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.9909054436208</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H35" t="n">
-        <v>326.0400019133721</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I35" t="n">
-        <v>159.9014836333536</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>67.46474657889404</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S35" t="n">
-        <v>179.1266962566148</v>
+        <v>122.8695009220967</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3533046710778</v>
+        <v>166.3169052439262</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2407063421153</v>
+        <v>201.4230125321232</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>283.8928162806435</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>128.8490567988243</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6416251260792</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H36" t="n">
-        <v>105.4566448252536</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I36" t="n">
-        <v>65.23061315193451</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>56.57895837355435</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S36" t="n">
-        <v>158.6458343615066</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3356112293665</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8952049732688</v>
+        <v>176.0902156279161</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>201.8999761337949</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25317,25 +25317,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>98.82046599108767</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>96.63895561944449</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4025366526095</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H37" t="n">
-        <v>156.9953819045248</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I37" t="n">
-        <v>137.7543979186262</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J37" t="n">
-        <v>51.75628081312638</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>36.88799085553058</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R37" t="n">
-        <v>150.8348675305268</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S37" t="n">
-        <v>213.761646517762</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4313342305617</v>
+        <v>224.8878160949084</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2869324816264</v>
+        <v>242.4205517627437</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>236.7279913094663</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>332.9388346363559</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>332.1353630451371</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>363.01660355222</v>
       </c>
       <c r="G38" t="n">
-        <v>413.9909054436208</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H38" t="n">
-        <v>326.0400019133721</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I38" t="n">
-        <v>159.9014836333536</v>
+        <v>99.17357415002326</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>67.46474657889404</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S38" t="n">
-        <v>179.1266962566148</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3533046710778</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25478,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>113.7856382659095</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6416251260792</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H39" t="n">
-        <v>105.4566448252536</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I39" t="n">
-        <v>65.23061315193451</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>56.57895837355435</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S39" t="n">
-        <v>158.6458343615066</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3356112293665</v>
+        <v>146.9290208388017</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>201.8999761337949</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4025366526095</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H40" t="n">
-        <v>156.9953819045248</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I40" t="n">
-        <v>137.7543979186262</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J40" t="n">
-        <v>51.75628081312638</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>36.88799085553058</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R40" t="n">
-        <v>150.8348675305268</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S40" t="n">
-        <v>213.761646517762</v>
+        <v>161.7497793501111</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4313342305617</v>
+        <v>175.0928090677837</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>175.9146483619125</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>174.7252111626034</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.9909054436208</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H41" t="n">
-        <v>326.0400019133721</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I41" t="n">
-        <v>159.9014836333536</v>
+        <v>104.9651457357263</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>67.46474657889404</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.1266962566148</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3533046710778</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>277.9572514430103</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>299.4459616902883</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6416251260792</v>
+        <v>86.6948868618878</v>
       </c>
       <c r="H42" t="n">
-        <v>105.4566448252536</v>
+        <v>54.19623348224739</v>
       </c>
       <c r="I42" t="n">
-        <v>65.23061315193451</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>56.57895837355435</v>
+        <v>3.298869728286668</v>
       </c>
       <c r="S42" t="n">
-        <v>158.6458343615066</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3356112293665</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8952049732688</v>
+        <v>176.0902156279161</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4025366526095</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H43" t="n">
-        <v>156.9953819045248</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I43" t="n">
-        <v>137.7543979186262</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J43" t="n">
-        <v>51.75628081312638</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.88799085553058</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>150.8348675305268</v>
+        <v>95.32019944182528</v>
       </c>
       <c r="S43" t="n">
-        <v>213.761646517762</v>
+        <v>161.7497793501111</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4313342305617</v>
+        <v>175.0928090677837</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>208.0864050178374</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>357.0810387145867</v>
       </c>
       <c r="G44" t="n">
-        <v>413.9370783158017</v>
+        <v>363.9123136306533</v>
       </c>
       <c r="H44" t="n">
-        <v>325.4887448405939</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I44" t="n">
-        <v>157.8263132881047</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>64.08352826102248</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S44" t="n">
-        <v>177.9001105814353</v>
+        <v>122.8695009220967</v>
       </c>
       <c r="T44" t="n">
-        <v>217.1176764190494</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2364001718898</v>
+        <v>207.3585773697565</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6128250736805</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H45" t="n">
-        <v>105.1784969507712</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I45" t="n">
-        <v>64.2390324004872</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>54.79082880444759</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>158.1108860198022</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T45" t="n">
-        <v>197.2195268076366</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8933102329794</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>201.8999761337949</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>159.1865584784663</v>
       </c>
     </row>
     <row r="46">
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3783916561348</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H46" t="n">
-        <v>156.7807109358685</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I46" t="n">
-        <v>137.0282920246438</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J46" t="n">
-        <v>50.04922956237019</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>34.86617665073242</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>149.7492206890403</v>
+        <v>127.4919560977502</v>
       </c>
       <c r="S46" t="n">
-        <v>213.3408650791996</v>
+        <v>161.7497793501111</v>
       </c>
       <c r="T46" t="n">
-        <v>225.3281692456247</v>
+        <v>175.0928090677837</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2856154818187</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>175.9146483619125</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>363052.1115026793</v>
+        <v>361897.5871131801</v>
       </c>
     </row>
     <row r="3">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>359954.9385771643</v>
+        <v>404960.5090989773</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>359954.9385771643</v>
+        <v>404960.5090989773</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>359954.9385771643</v>
+        <v>404960.5090989774</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>359954.9385771643</v>
+        <v>404960.5090989773</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>359954.9385771643</v>
+        <v>404960.5090989773</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>359954.9385771643</v>
+        <v>404960.5090989773</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>359954.9385771643</v>
+        <v>404960.5090989773</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>360079.9137352218</v>
+        <v>404960.5090989773</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70000.02111109272</v>
+        <v>70529.94656182195</v>
       </c>
       <c r="C2" t="n">
-        <v>70529.94656182197</v>
+        <v>70529.94656182195</v>
       </c>
       <c r="D2" t="n">
-        <v>70893.33345427415</v>
+        <v>70893.33345427414</v>
       </c>
       <c r="E2" t="n">
-        <v>71864.55661388765</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="F2" t="n">
-        <v>71864.55661388766</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="G2" t="n">
-        <v>71864.55661388765</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="H2" t="n">
-        <v>71864.55661388765</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="I2" t="n">
-        <v>71864.55661388767</v>
+        <v>81765.52377455859</v>
       </c>
       <c r="J2" t="n">
-        <v>71864.55661388767</v>
+        <v>81765.52377455859</v>
       </c>
       <c r="K2" t="n">
-        <v>71864.55661388765</v>
+        <v>81765.52377455859</v>
       </c>
       <c r="L2" t="n">
-        <v>71864.55661388767</v>
+        <v>81765.52377455859</v>
       </c>
       <c r="M2" t="n">
-        <v>71864.55661388767</v>
+        <v>81765.52377455861</v>
       </c>
       <c r="N2" t="n">
-        <v>71864.55661388767</v>
+        <v>81765.52377455861</v>
       </c>
       <c r="O2" t="n">
-        <v>71864.55661388766</v>
+        <v>81765.52377455863</v>
       </c>
       <c r="P2" t="n">
-        <v>72137.28643912681</v>
+        <v>81765.52377455862</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>226237.0968787037</v>
+        <v>251306.7941829319</v>
       </c>
       <c r="C3" t="n">
-        <v>23690.54434158194</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>15278.63930251696</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66341.74384831298</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>8911.728550812868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24718.67613239747</v>
+        <v>21002.84539770707</v>
       </c>
       <c r="C4" t="n">
         <v>21002.84539770707</v>
@@ -26438,28 +26438,28 @@
         <v>12609.58161003999</v>
       </c>
       <c r="I4" t="n">
-        <v>12609.58161003999</v>
+        <v>9803.65733773385</v>
       </c>
       <c r="J4" t="n">
-        <v>12609.58161003999</v>
+        <v>9803.657337733852</v>
       </c>
       <c r="K4" t="n">
-        <v>12609.58161003999</v>
+        <v>9803.65733773385</v>
       </c>
       <c r="L4" t="n">
-        <v>12609.58161003999</v>
+        <v>9803.657337733852</v>
       </c>
       <c r="M4" t="n">
-        <v>12609.58161003999</v>
+        <v>9803.657337733852</v>
       </c>
       <c r="N4" t="n">
-        <v>12609.58161003999</v>
+        <v>9803.657337733852</v>
       </c>
       <c r="O4" t="n">
-        <v>12609.58161003999</v>
+        <v>9803.65733773385</v>
       </c>
       <c r="P4" t="n">
-        <v>11416.36261277497</v>
+        <v>9803.657337733852</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38745.80483114667</v>
+        <v>39312.96135688073</v>
       </c>
       <c r="C5" t="n">
         <v>39312.96135688073</v>
@@ -26490,28 +26490,28 @@
         <v>7113.737365803781</v>
       </c>
       <c r="I5" t="n">
-        <v>7113.737365803781</v>
+        <v>11679.08319048216</v>
       </c>
       <c r="J5" t="n">
-        <v>7113.737365803781</v>
+        <v>11679.08319048216</v>
       </c>
       <c r="K5" t="n">
-        <v>7113.737365803781</v>
+        <v>11679.08319048216</v>
       </c>
       <c r="L5" t="n">
-        <v>7113.737365803781</v>
+        <v>11679.08319048216</v>
       </c>
       <c r="M5" t="n">
-        <v>7113.737365803781</v>
+        <v>11679.08319048216</v>
       </c>
       <c r="N5" t="n">
-        <v>7113.737365803781</v>
+        <v>11679.08319048216</v>
       </c>
       <c r="O5" t="n">
-        <v>7113.737365803781</v>
+        <v>11679.08319048216</v>
       </c>
       <c r="P5" t="n">
-        <v>7405.628423185238</v>
+        <v>11679.08319048216</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219701.5567311551</v>
+        <v>-255741.2030754863</v>
       </c>
       <c r="C6" t="n">
-        <v>-13476.40453434777</v>
+        <v>-4434.408892554442</v>
       </c>
       <c r="D6" t="n">
-        <v>-2655.335056154821</v>
+        <v>-17273.60151490574</v>
       </c>
       <c r="E6" t="n">
-        <v>13833.70845974586</v>
+        <v>-703.6227357038861</v>
       </c>
       <c r="F6" t="n">
-        <v>52141.23763804389</v>
+        <v>37603.90644259413</v>
       </c>
       <c r="G6" t="n">
-        <v>52141.23763804387</v>
+        <v>37603.90644259413</v>
       </c>
       <c r="H6" t="n">
-        <v>52141.23763804387</v>
+        <v>37603.90644259413</v>
       </c>
       <c r="I6" t="n">
-        <v>52141.2376380439</v>
+        <v>-19771.2112006976</v>
       </c>
       <c r="J6" t="n">
-        <v>52141.2376380439</v>
+        <v>46570.53264761538</v>
       </c>
       <c r="K6" t="n">
-        <v>52141.23763804387</v>
+        <v>46570.53264761538</v>
       </c>
       <c r="L6" t="n">
-        <v>52141.2376380439</v>
+        <v>46570.53264761538</v>
       </c>
       <c r="M6" t="n">
-        <v>52141.2376380439</v>
+        <v>46570.53264761539</v>
       </c>
       <c r="N6" t="n">
-        <v>52141.2376380439</v>
+        <v>46570.53264761539</v>
       </c>
       <c r="O6" t="n">
-        <v>52141.23763804389</v>
+        <v>46570.53264761542</v>
       </c>
       <c r="P6" t="n">
-        <v>44403.56685235372</v>
+        <v>46570.53264761541</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="C3" t="n">
         <v>260.7963925174648</v>
@@ -26758,28 +26758,28 @@
         <v>326.3182277891643</v>
       </c>
       <c r="I3" t="n">
-        <v>326.3182277891643</v>
+        <v>396.859943267568</v>
       </c>
       <c r="J3" t="n">
-        <v>326.3182277891643</v>
+        <v>396.859943267568</v>
       </c>
       <c r="K3" t="n">
-        <v>326.3182277891643</v>
+        <v>396.859943267568</v>
       </c>
       <c r="L3" t="n">
-        <v>326.3182277891643</v>
+        <v>396.859943267568</v>
       </c>
       <c r="M3" t="n">
-        <v>326.3182277891643</v>
+        <v>396.859943267568</v>
       </c>
       <c r="N3" t="n">
-        <v>326.3182277891643</v>
+        <v>396.859943267568</v>
       </c>
       <c r="O3" t="n">
-        <v>326.3182277891643</v>
+        <v>396.859943267568</v>
       </c>
       <c r="P3" t="n">
-        <v>339.7077258341852</v>
+        <v>396.859943267568</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="C3" t="n">
-        <v>26.01635439147063</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>17.84024934496279</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>70.54171547840377</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>13.38949804502096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H2" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I2" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J2" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K2" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L2" t="n">
-        <v>148.9449281068054</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M2" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N2" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O2" t="n">
-        <v>159.0263121559843</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P2" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q2" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R2" t="n">
-        <v>59.28844852233964</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S2" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T2" t="n">
-        <v>4.131656751342871</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H3" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I3" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J3" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K3" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L3" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M3" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P3" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.4626248077258</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R3" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S3" t="n">
-        <v>9.380126994939479</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T3" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H4" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I4" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J4" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K4" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L4" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M4" t="n">
-        <v>66.36577372797568</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N4" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O4" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P4" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.45178575702513</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R4" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S4" t="n">
-        <v>7.378251362090667</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T4" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I11" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J11" t="n">
         <v>111.3401072796808</v>
@@ -31785,7 +31785,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R11" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S11" t="n">
         <v>29.89337332963048</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H12" t="n">
         <v>6.778799411242828</v>
@@ -31864,7 +31864,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R12" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S12" t="n">
         <v>13.03733674233122</v>
@@ -31913,7 +31913,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H13" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I13" t="n">
         <v>17.69607700863206</v>
@@ -31925,10 +31925,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L13" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M13" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N13" t="n">
         <v>90.04778243237713</v>
@@ -31995,7 +31995,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J14" t="n">
         <v>111.3401072796808</v>
@@ -32022,7 +32022,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S14" t="n">
         <v>29.89337332963048</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H15" t="n">
         <v>6.778799411242828</v>
@@ -32101,7 +32101,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S15" t="n">
         <v>13.03733674233122</v>
@@ -32150,7 +32150,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I16" t="n">
         <v>17.69607700863206</v>
@@ -32162,10 +32162,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M16" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N16" t="n">
         <v>90.04778243237713</v>
@@ -32469,7 +32469,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I20" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J20" t="n">
         <v>111.3401072796808</v>
@@ -32496,7 +32496,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R20" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S20" t="n">
         <v>29.89337332963048</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H21" t="n">
         <v>6.778799411242828</v>
@@ -32575,7 +32575,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R21" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S21" t="n">
         <v>13.03733674233122</v>
@@ -32624,7 +32624,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I22" t="n">
         <v>17.69607700863206</v>
@@ -32636,10 +32636,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L22" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M22" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N22" t="n">
         <v>90.04778243237713</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.311832071514227</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H23" t="n">
-        <v>13.43480020239508</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I23" t="n">
-        <v>50.5744059370523</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J23" t="n">
-        <v>111.3401072796808</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K23" t="n">
-        <v>166.869958866878</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L23" t="n">
-        <v>207.0169396254816</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>280.1412402543974</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>279.2080706237156</v>
       </c>
       <c r="O23" t="n">
-        <v>221.0289459393429</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P23" t="n">
-        <v>188.6430916738354</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.6631056127321</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R23" t="n">
-        <v>82.40437136225566</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S23" t="n">
-        <v>29.89337332963048</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T23" t="n">
-        <v>5.742544893053533</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.70189203713141</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H24" t="n">
-        <v>6.778799411242828</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I24" t="n">
-        <v>24.16601969948056</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J24" t="n">
-        <v>66.31340513968291</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K24" t="n">
-        <v>113.3401716274874</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>163.8914845489274</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>181.136719110458</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.59590284505508</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R24" t="n">
-        <v>43.57887577908879</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S24" t="n">
-        <v>13.03733674233122</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T24" t="n">
-        <v>2.829117465455112</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H25" t="n">
-        <v>5.231790602914802</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I25" t="n">
-        <v>17.69607700863206</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J25" t="n">
-        <v>41.60289930354639</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K25" t="n">
-        <v>68.36634346140194</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L25" t="n">
-        <v>87.48538192236055</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M25" t="n">
-        <v>92.24106888145178</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N25" t="n">
-        <v>90.04778243237713</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O25" t="n">
-        <v>83.17370173222832</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P25" t="n">
-        <v>71.16947053290228</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.2740523961638</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R25" t="n">
-        <v>26.45852384664272</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S25" t="n">
-        <v>10.25495151921029</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T25" t="n">
-        <v>2.514255197719789</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U25" t="n">
-        <v>0.032096874864508</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.311832071514227</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H26" t="n">
-        <v>13.43480020239508</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I26" t="n">
-        <v>50.57440593705229</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J26" t="n">
-        <v>111.3401072796808</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K26" t="n">
-        <v>166.869958866878</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L26" t="n">
-        <v>207.0169396254816</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>280.1412402543974</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>279.2080706237156</v>
       </c>
       <c r="O26" t="n">
-        <v>221.0289459393429</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P26" t="n">
-        <v>188.6430916738354</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q26" t="n">
-        <v>141.6631056127321</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R26" t="n">
-        <v>82.40437136225565</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S26" t="n">
-        <v>29.89337332963048</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T26" t="n">
-        <v>5.742544893053533</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H27" t="n">
-        <v>6.778799411242828</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I27" t="n">
-        <v>24.16601969948056</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J27" t="n">
-        <v>66.31340513968291</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K27" t="n">
-        <v>113.3401716274874</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>163.8914845489274</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>181.136719110458</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.59590284505508</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R27" t="n">
-        <v>43.57887577908878</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S27" t="n">
-        <v>13.03733674233122</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T27" t="n">
-        <v>2.829117465455112</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H28" t="n">
-        <v>5.231790602914801</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I28" t="n">
-        <v>17.69607700863206</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J28" t="n">
-        <v>41.60289930354639</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K28" t="n">
-        <v>68.36634346140194</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L28" t="n">
-        <v>87.48538192236053</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M28" t="n">
-        <v>92.24106888145177</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N28" t="n">
-        <v>90.04778243237713</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O28" t="n">
-        <v>83.17370173222832</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P28" t="n">
-        <v>71.16947053290228</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.2740523961638</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R28" t="n">
-        <v>26.45852384664272</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S28" t="n">
-        <v>10.25495151921029</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T28" t="n">
-        <v>2.514255197719789</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U28" t="n">
-        <v>0.032096874864508</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.311832071514227</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H29" t="n">
-        <v>13.43480020239508</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I29" t="n">
-        <v>50.57440593705229</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J29" t="n">
-        <v>111.3401072796808</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K29" t="n">
-        <v>166.869958866878</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L29" t="n">
-        <v>207.0169396254816</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>280.1412402543974</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>279.2080706237156</v>
       </c>
       <c r="O29" t="n">
-        <v>221.0289459393429</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P29" t="n">
-        <v>188.6430916738354</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q29" t="n">
-        <v>141.6631056127321</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R29" t="n">
-        <v>82.40437136225565</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S29" t="n">
-        <v>29.89337332963048</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T29" t="n">
-        <v>5.742544893053533</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H30" t="n">
-        <v>6.778799411242828</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I30" t="n">
-        <v>24.16601969948056</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J30" t="n">
-        <v>66.31340513968291</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K30" t="n">
-        <v>113.3401716274874</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>191.929040949143</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>153.0991627102424</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.59590284505508</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R30" t="n">
-        <v>43.57887577908878</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S30" t="n">
-        <v>13.03733674233122</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T30" t="n">
-        <v>2.829117465455112</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H31" t="n">
-        <v>5.231790602914801</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I31" t="n">
-        <v>17.69607700863206</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J31" t="n">
-        <v>41.60289930354639</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K31" t="n">
-        <v>68.36634346140194</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L31" t="n">
-        <v>87.48538192236053</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M31" t="n">
-        <v>92.24106888145177</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N31" t="n">
-        <v>90.04778243237713</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O31" t="n">
-        <v>83.17370173222832</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P31" t="n">
-        <v>71.16947053290228</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.2740523961638</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R31" t="n">
-        <v>26.45852384664272</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S31" t="n">
-        <v>10.25495151921029</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T31" t="n">
-        <v>2.514255197719789</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U31" t="n">
-        <v>0.032096874864508</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.311832071514227</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H32" t="n">
-        <v>13.43480020239508</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I32" t="n">
-        <v>50.57440593705229</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J32" t="n">
-        <v>111.3401072796808</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K32" t="n">
-        <v>166.869958866878</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L32" t="n">
-        <v>207.0169396254816</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>280.1412402543974</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>279.2080706237156</v>
       </c>
       <c r="O32" t="n">
-        <v>221.0289459393429</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P32" t="n">
-        <v>188.6430916738354</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6631056127321</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R32" t="n">
-        <v>82.40437136225565</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S32" t="n">
-        <v>29.89337332963048</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T32" t="n">
-        <v>5.742544893053533</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H33" t="n">
-        <v>6.778799411242828</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I33" t="n">
-        <v>24.16601969948056</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J33" t="n">
-        <v>66.31340513968291</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K33" t="n">
-        <v>113.3401716274874</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>157.3072689909255</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>191.929040949143</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>181.136719110458</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.59590284505508</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R33" t="n">
-        <v>43.57887577908878</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S33" t="n">
-        <v>13.03733674233122</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T33" t="n">
-        <v>2.829117465455112</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H34" t="n">
-        <v>5.231790602914801</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I34" t="n">
-        <v>17.69607700863206</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J34" t="n">
-        <v>41.60289930354639</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K34" t="n">
-        <v>68.36634346140194</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L34" t="n">
-        <v>87.48538192236053</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M34" t="n">
-        <v>92.24106888145177</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N34" t="n">
-        <v>90.04778243237713</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O34" t="n">
-        <v>83.17370173222832</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P34" t="n">
-        <v>71.16947053290228</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.2740523961638</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R34" t="n">
-        <v>26.45852384664272</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S34" t="n">
-        <v>10.25495151921029</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T34" t="n">
-        <v>2.514255197719789</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U34" t="n">
-        <v>0.032096874864508</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.311832071514227</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H35" t="n">
-        <v>13.43480020239508</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I35" t="n">
-        <v>50.57440593705229</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J35" t="n">
-        <v>111.3401072796808</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K35" t="n">
-        <v>166.869958866878</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L35" t="n">
-        <v>207.0169396254816</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>280.1412402543974</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>279.2080706237156</v>
       </c>
       <c r="O35" t="n">
-        <v>221.0289459393429</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P35" t="n">
-        <v>188.6430916738354</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.6631056127321</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R35" t="n">
-        <v>82.40437136225565</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S35" t="n">
-        <v>29.89337332963048</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T35" t="n">
-        <v>5.742544893053533</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H36" t="n">
-        <v>6.778799411242828</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I36" t="n">
-        <v>24.16601969948056</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J36" t="n">
-        <v>66.31340513968291</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K36" t="n">
-        <v>113.3401716274874</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>191.929040949143</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>181.136719110458</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>134.9670493543446</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.59590284505508</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R36" t="n">
-        <v>43.57887577908878</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S36" t="n">
-        <v>13.03733674233122</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T36" t="n">
-        <v>2.829117465455112</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H37" t="n">
-        <v>5.231790602914801</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I37" t="n">
-        <v>17.69607700863206</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J37" t="n">
-        <v>41.60289930354639</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K37" t="n">
-        <v>68.36634346140194</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L37" t="n">
-        <v>87.48538192236053</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M37" t="n">
-        <v>92.24106888145177</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N37" t="n">
-        <v>90.04778243237713</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O37" t="n">
-        <v>83.17370173222832</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P37" t="n">
-        <v>71.16947053290228</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.2740523961638</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R37" t="n">
-        <v>26.45852384664272</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S37" t="n">
-        <v>10.25495151921029</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T37" t="n">
-        <v>2.514255197719789</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U37" t="n">
-        <v>0.032096874864508</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.311832071514227</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H38" t="n">
-        <v>13.43480020239508</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I38" t="n">
-        <v>50.57440593705229</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J38" t="n">
-        <v>111.3401072796808</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K38" t="n">
-        <v>166.869958866878</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L38" t="n">
-        <v>207.0169396254816</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>280.1412402543974</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>279.2080706237156</v>
       </c>
       <c r="O38" t="n">
-        <v>221.0289459393429</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P38" t="n">
-        <v>188.6430916738354</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q38" t="n">
-        <v>141.6631056127321</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R38" t="n">
-        <v>82.40437136225565</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S38" t="n">
-        <v>29.89337332963048</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T38" t="n">
-        <v>5.742544893053533</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H39" t="n">
-        <v>6.778799411242828</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I39" t="n">
-        <v>24.16601969948056</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J39" t="n">
-        <v>66.31340513968291</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K39" t="n">
-        <v>113.3401716274874</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>191.929040949143</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>181.136719110458</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.59590284505508</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R39" t="n">
-        <v>43.57887577908878</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S39" t="n">
-        <v>13.03733674233122</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T39" t="n">
-        <v>2.829117465455112</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H40" t="n">
-        <v>5.231790602914801</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I40" t="n">
-        <v>17.69607700863206</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J40" t="n">
-        <v>41.60289930354639</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K40" t="n">
-        <v>68.36634346140194</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L40" t="n">
-        <v>87.48538192236053</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M40" t="n">
-        <v>92.24106888145177</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N40" t="n">
-        <v>90.04778243237713</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O40" t="n">
-        <v>83.17370173222832</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P40" t="n">
-        <v>71.16947053290228</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.2740523961638</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R40" t="n">
-        <v>26.45852384664272</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S40" t="n">
-        <v>10.25495151921029</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T40" t="n">
-        <v>2.514255197719789</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U40" t="n">
-        <v>0.032096874864508</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.311832071514227</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H41" t="n">
-        <v>13.43480020239508</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I41" t="n">
-        <v>50.57440593705229</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J41" t="n">
-        <v>111.3401072796808</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K41" t="n">
-        <v>166.869958866878</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L41" t="n">
-        <v>207.0169396254816</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>280.1412402543974</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>279.2080706237156</v>
       </c>
       <c r="O41" t="n">
-        <v>221.0289459393429</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P41" t="n">
-        <v>188.6430916738354</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q41" t="n">
-        <v>141.6631056127321</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R41" t="n">
-        <v>82.40437136225565</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S41" t="n">
-        <v>29.89337332963048</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T41" t="n">
-        <v>5.742544893053533</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H42" t="n">
-        <v>6.778799411242828</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I42" t="n">
-        <v>24.16601969948056</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J42" t="n">
-        <v>66.31340513968291</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K42" t="n">
-        <v>113.3401716274874</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>191.929040949143</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>181.136719110458</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.59590284505508</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R42" t="n">
-        <v>43.57887577908878</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S42" t="n">
-        <v>13.03733674233122</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T42" t="n">
-        <v>2.829117465455112</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H43" t="n">
-        <v>5.231790602914801</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I43" t="n">
-        <v>17.69607700863206</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J43" t="n">
-        <v>41.60289930354639</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K43" t="n">
-        <v>68.36634346140194</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L43" t="n">
-        <v>87.48538192236053</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M43" t="n">
-        <v>92.24106888145177</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N43" t="n">
-        <v>90.04778243237713</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O43" t="n">
-        <v>83.17370173222832</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P43" t="n">
-        <v>71.16947053290228</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.2740523961638</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R43" t="n">
-        <v>26.45852384664272</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S43" t="n">
-        <v>10.25495151921029</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T43" t="n">
-        <v>2.514255197719789</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U43" t="n">
-        <v>0.032096874864508</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.365659199333407</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H44" t="n">
-        <v>13.98605727517326</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I44" t="n">
-        <v>52.64957628230122</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J44" t="n">
-        <v>115.9086174694238</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K44" t="n">
-        <v>173.716971377207</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L44" t="n">
-        <v>215.5112640988068</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>280.1412402543974</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>279.2080706237156</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P44" t="n">
-        <v>196.3834999381432</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.4758298620156</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R44" t="n">
-        <v>85.7855896801272</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S44" t="n">
-        <v>31.11995900481004</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T44" t="n">
-        <v>5.978173145081992</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1092527359466725</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7306920895301343</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H45" t="n">
-        <v>7.056947285725245</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I45" t="n">
-        <v>25.15760045092787</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J45" t="n">
-        <v>69.0343785112659</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K45" t="n">
-        <v>117.9907485097849</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>163.8914845489274</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>181.136719110458</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.27220427054837</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R45" t="n">
-        <v>45.36700534819555</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S45" t="n">
-        <v>13.5722850840356</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T45" t="n">
-        <v>2.945201887185058</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04807184799540359</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6125877023239404</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H46" t="n">
-        <v>5.446461571571039</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I46" t="n">
-        <v>18.42218290261451</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J46" t="n">
-        <v>43.30995055430259</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K46" t="n">
-        <v>71.1715530518178</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L46" t="n">
-        <v>91.07508439823386</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M46" t="n">
-        <v>96.02590682883368</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N46" t="n">
-        <v>93.74262539289907</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O46" t="n">
-        <v>86.586487233933</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P46" t="n">
-        <v>74.08969810652455</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.29586660096196</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R46" t="n">
-        <v>27.54417068812917</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S46" t="n">
-        <v>10.67573295777267</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T46" t="n">
-        <v>2.617420182656836</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03341387467221497</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36363,22 +36363,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>42.86418322768714</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>21.75745062690909</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>47.78308755128123</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>42.86418322768714</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>21.75745062690909</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>47.78308755128124</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>31.78075680389464</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>21.75745062690909</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>47.78308755128123</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>42.86418322768714</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>18.75288921105134</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>47.78308755128124</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>42.86418322768714</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.9926419400143358</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>47.78308755128124</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37478,10 +37478,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>47.78308755128124</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>21.75745062690909</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,16 +37703,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>47.78308755128124</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>31.78075680389464</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>21.75745062690909</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>47.78308755128124</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>47.78308755128123</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>21.75745062690909</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38183,16 +38183,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>47.78308755128124</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69113.86367215209</v>
+        <v>40163.50364969662</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11757712.82212335</v>
+        <v>11516724.97267368</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21176269.34299449</v>
+        <v>21840749.86579527</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4406656.735772076</v>
+        <v>4168337.246220709</v>
       </c>
     </row>
     <row r="11">
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>43.85944218949141</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2408,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>43.85944218949141</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>43.8594421894914</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>43.8594421894914</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>43.8594421894914</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>17.62325037119977</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2757,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.23619181829162</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>44.00343544142167</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>49.65101377519441</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>43.85944218949141</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>43.85944218949141</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>43.85944218949141</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>43.8594421894914</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>43.8594421894914</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>43.8594421894914</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>43.8594421894914</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>43.85944218949141</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>43.8594421894914</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>43.8594421894914</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>43.8594421894914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>44.00343544142167</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>49.65101377519441</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>43.85944218949141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.23619181829162</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>17.62325037119977</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>43.85944218949141</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>46.49613729883802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4179,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.23619181829162</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>17.62325037119979</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>19.82590800208273</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>69.12296495893617</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>118.4200219157896</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>156.7444867130885</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>156.7444867130885</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>50.30614171732424</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>71.84601783796424</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>121.1430747948177</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>170.4401317516711</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>53.28065751902341</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>102.5777144758769</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>149.8829711516453</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>19.82590800208273</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>69.12296495893617</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>118.4200219157896</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>156.7444867130885</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>50.30614171732424</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>71.84601783796424</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>121.1430747948177</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>170.4401317516711</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.08285045946741</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>51.2888572379384</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>100.5859141947918</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>149.8829711516453</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>172.6788242516385</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>172.6788242516385</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>122.380837355553</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>72.08285045946741</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>72.08285045946741</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>72.08285045946741</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>72.08285045946741</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>72.08285045946741</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>72.08285045946741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>19.82590800208273</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>69.12296495893617</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>118.4200219157896</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>167.717078872643</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>167.717078872643</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.0274889416357</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>149.0274889416357</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>149.0274889416357</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>98.72950204555013</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>98.72950204555013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>98.72950204555013</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>98.72950204555013</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>48.43151514946459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>50.30614171732424</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>99.60319867417768</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>121.1430747948177</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>170.4401317516711</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>53.28065751902341</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>102.5777144758769</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>151.8747714327303</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>19.82590800208273</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>69.12296495893617</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>118.4200219157896</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>156.7444867130885</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>22.5489608811108</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>71.84601783796424</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>121.1430747948177</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>170.4401317516711</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>51.2888572379384</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>100.5859141947918</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>149.8829711516453</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>19.82590800208273</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>69.12296495893617</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>118.4200219157896</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>156.7444867130885</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>50.30614171732424</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>99.60319867417768</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>148.9002556310311</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>198.1973125878845</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>53.28065751902341</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>100.5859141947918</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>100.5859141947918</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>100.5859141947918</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>149.8829711516453</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>51.2888572379384</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>100.5859141947918</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>149.8829711516453</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>50.30614171732424</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>99.60319867417768</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>148.9002556310311</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>170.4401317516711</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>51.2888572379384</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>100.5859141947918</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>149.8829711516453</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>98.58405431632764</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>48.2860674202421</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48.43151514946459</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>48.43151514946459</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>48.43151514946459</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>48.43151514946459</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>48.43151514946459</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>48.43151514946459</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>48.43151514946459</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>19.82590800208273</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>69.12296495893617</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>118.4200219157896</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>167.717078872643</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.0274889416357</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>149.0274889416357</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>149.0274889416357</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>149.0274889416357</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>98.72950204555013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>48.43151514946459</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>48.43151514946459</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>48.43151514946459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>50.30614171732424</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>99.60319867417768</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>148.9002556310311</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>170.4401317516711</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>53.28065751902341</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>100.5859141947918</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>100.5859141947918</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>149.8829711516453</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6788242516385</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.380837355553</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>72.08285045946741</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>21.78486356338187</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>21.78486356338187</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>21.78486356338187</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>21.78486356338187</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>53.28065751902341</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>102.5777144758769</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>151.8747714327303</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>148.8820412124132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>50.30614171732424</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>71.84601783796424</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>121.1430747948177</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>170.4401317516711</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>151.5453696056926</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>151.5453696056926</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>151.5453696056926</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>151.5453696056926</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>151.5453696056926</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>101.2473827096071</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>50.94939581352151</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>51.2888572379384</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>100.5859141947918</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>149.8829711516453</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>199.1800281084987</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6788242516385</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>154.8775612504266</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>104.579574354341</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>54.28158745825552</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.983600562169975</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.06191329280011</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K2" t="n">
-        <v>86.72591490550931</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L2" t="n">
-        <v>70.31665934305323</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M2" t="n">
-        <v>46.25150133729363</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N2" t="n">
-        <v>42.33948647951536</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O2" t="n">
-        <v>53.44993733213093</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P2" t="n">
-        <v>80.46778072209531</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q2" t="n">
-        <v>109.0872921559756</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>73.83937108913167</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K3" t="n">
-        <v>47.25897875440141</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L3" t="n">
-        <v>16.75508344424118</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.130000058643361</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P3" t="n">
-        <v>26.85597970277001</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q3" t="n">
-        <v>68.37594193669796</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>74.37427626277801</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L4" t="n">
-        <v>64.96559098237566</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M4" t="n">
-        <v>65.20591187910269</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N4" t="n">
-        <v>55.71856618250388</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O4" t="n">
-        <v>71.98338581476828</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P4" t="n">
-        <v>80.84873837615825</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>92.06191329280011</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K5" t="n">
         <v>86.72591490550931</v>
@@ -8224,7 +8224,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M5" t="n">
-        <v>46.25150133729363</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N5" t="n">
         <v>42.33948647951536</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>73.83937108913167</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K6" t="n">
         <v>47.25897875440141</v>
@@ -8388,10 +8388,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O7" t="n">
-        <v>71.98338581476828</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P7" t="n">
-        <v>80.84873837615825</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>85.97480228639999</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K8" t="n">
         <v>77.60291342766286</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P11" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8853,10 +8853,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M13" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N13" t="n">
         <v>37.63776203285606</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9090,10 +9090,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M16" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N16" t="n">
         <v>37.63776203285606</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P20" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9564,10 +9564,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M22" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N22" t="n">
         <v>37.63776203285606</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.63689302957772</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K23" t="n">
-        <v>17.14684397594775</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P23" t="n">
-        <v>1.810057396252972</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q23" t="n">
-        <v>92.88280094721969</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>46.18894706358476</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>31.01751192697151</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>45.86784710562524</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L25" t="n">
-        <v>78.2821831083989</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M25" t="n">
-        <v>76.5395450441941</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N25" t="n">
-        <v>65.9548053767935</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O25" t="n">
-        <v>87.09780125070273</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P25" t="n">
-        <v>51.173501012562</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.63689302957772</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K26" t="n">
-        <v>17.14684397594775</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P26" t="n">
-        <v>44.67424062394011</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.01861771953256</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>46.18894706358476</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>31.01751192697151</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>45.86784710562524</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L28" t="n">
-        <v>76.27026363255546</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M28" t="n">
-        <v>76.5395450441941</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N28" t="n">
-        <v>67.96672485263694</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O28" t="n">
-        <v>87.09780125070273</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P28" t="n">
-        <v>51.173501012562</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.63689302957772</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K29" t="n">
-        <v>17.14684397594775</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>11.0834264237925</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P29" t="n">
-        <v>1.810057396252972</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q29" t="n">
-        <v>81.79937452342719</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>46.18894706358476</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>31.01751192697151</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>45.86784710562524</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L31" t="n">
-        <v>78.2821831083989</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M31" t="n">
-        <v>76.5395450441941</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N31" t="n">
-        <v>67.96672485263694</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O31" t="n">
-        <v>85.08588177485927</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P31" t="n">
-        <v>51.173501012562</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.63689302957772</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K32" t="n">
-        <v>17.14684397594775</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P32" t="n">
-        <v>44.67424062394011</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.01861771953256</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>46.18894706358476</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>31.01751192697151</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>45.86784710562524</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L34" t="n">
-        <v>76.27026363255546</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M34" t="n">
-        <v>76.5395450441941</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N34" t="n">
-        <v>67.96672485263694</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O34" t="n">
-        <v>87.09780125070273</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P34" t="n">
-        <v>51.173501012562</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.63689302957772</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K35" t="n">
-        <v>17.14684397594775</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P35" t="n">
-        <v>44.67424062394011</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q35" t="n">
-        <v>50.01861771953256</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>46.18894706358476</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>31.01751192697151</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>95.66285413274993</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L37" t="n">
-        <v>76.27026363255546</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M37" t="n">
-        <v>26.74453801706942</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N37" t="n">
-        <v>18.17171782551226</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O37" t="n">
-        <v>87.09780125070273</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P37" t="n">
-        <v>100.9685080396867</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.63689302957772</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K38" t="n">
-        <v>17.14684397594775</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L38" t="n">
-        <v>31.78075680389462</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>11.0834264237925</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P38" t="n">
-        <v>1.810057396252972</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q38" t="n">
-        <v>50.01861771953256</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>46.18894706358476</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>31.01751192697151</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>93.65093465690649</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L40" t="n">
-        <v>78.2821831083989</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M40" t="n">
-        <v>76.5395450441941</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N40" t="n">
-        <v>67.96672485263694</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O40" t="n">
-        <v>37.30279422357805</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P40" t="n">
-        <v>51.173501012562</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.63689302957772</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K41" t="n">
-        <v>17.14684397594775</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>11.0834264237925</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P41" t="n">
-        <v>33.59081420014761</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.01861771953256</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>46.18894706358476</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>31.01751192697151</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>45.86784710562524</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L43" t="n">
-        <v>78.2821831083989</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M43" t="n">
-        <v>74.52762556835066</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N43" t="n">
-        <v>18.17171782551226</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O43" t="n">
-        <v>87.09780125070273</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P43" t="n">
-        <v>100.9685080396867</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.63689302957772</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K44" t="n">
-        <v>17.14684397594775</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L44" t="n">
-        <v>33.79267627973806</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.071506947949054</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P44" t="n">
-        <v>1.810057396252972</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q44" t="n">
-        <v>50.01861771953256</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>46.18894706358476</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>31.01751192697151</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>45.86784710562524</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L46" t="n">
-        <v>28.48717608127421</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M46" t="n">
-        <v>74.52762556835066</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N46" t="n">
-        <v>67.96672485263694</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O46" t="n">
-        <v>87.09780125070273</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P46" t="n">
-        <v>100.9685080396867</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.2543098065221</v>
+        <v>414.3588981658848</v>
       </c>
       <c r="H2" t="n">
-        <v>328.737591844935</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I2" t="n">
-        <v>170.0563803341062</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>84.01082088999308</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S2" t="n">
-        <v>185.1290231762283</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T2" t="n">
-        <v>218.5063572696783</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.7825588849655</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H3" t="n">
-        <v>106.817768233445</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I3" t="n">
-        <v>70.08293774516886</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>65.32921403493339</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S3" t="n">
-        <v>161.2636171197674</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T3" t="n">
-        <v>197.9036731785617</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9044769310903</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.5206907817879</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H4" t="n">
-        <v>158.0458795257661</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I4" t="n">
-        <v>141.3076148215571</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J4" t="n">
-        <v>60.10977774604451</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.78178798155719</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R4" t="n">
-        <v>156.1475068297698</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S4" t="n">
-        <v>215.8207507508087</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T4" t="n">
-        <v>225.9361746006879</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>84.01082088999308</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S5" t="n">
         <v>185.1290231762283</v>
@@ -22965,7 +22965,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J7" t="n">
-        <v>60.10977774604451</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.78178798155719</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R7" t="n">
         <v>156.1475068297698</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>62.94669922618534</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S9" t="n">
         <v>160.5508486671644</v>
@@ -23202,7 +23202,7 @@
         <v>140.3401468734729</v>
       </c>
       <c r="J10" t="n">
-        <v>57.83529218611378</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.08791033046782</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R10" t="n">
         <v>154.7009843173077</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S11" t="n">
         <v>179.1266962566148</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S12" t="n">
         <v>158.6458343615066</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S14" t="n">
         <v>179.1266962566148</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S15" t="n">
         <v>158.6458343615066</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S20" t="n">
         <v>179.1266962566148</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S21" t="n">
         <v>158.6458343615066</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.707320657778</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H23" t="n">
-        <v>323.1357392253592</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I23" t="n">
-        <v>148.9685811771479</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>49.65101377519441</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S23" t="n">
-        <v>128.80506575973</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T23" t="n">
-        <v>166.3169052439262</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U23" t="n">
-        <v>201.4230125321232</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V23" t="n">
-        <v>277.9572514430103</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24296,16 +24296,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>95.2742053662592</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>86.6948868618878</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H24" t="n">
-        <v>54.19623348224739</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I24" t="n">
-        <v>60.0065332792414</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.298869728286668</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S24" t="n">
-        <v>155.8274931817798</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T24" t="n">
-        <v>196.7240278659264</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8852226550407</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2753302804353</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H25" t="n">
-        <v>155.8644016137399</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I25" t="n">
-        <v>133.9289553808794</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J25" t="n">
-        <v>42.76279030041251</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,28 +24408,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.23619181829162</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R25" t="n">
-        <v>145.11520646895</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5447863772357</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T25" t="n">
-        <v>224.8878160949084</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U25" t="n">
-        <v>236.4849869251104</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V25" t="n">
-        <v>202.3426362967033</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>236.7279913094663</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>181.8502131995457</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9123136306533</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H26" t="n">
-        <v>279.2762970358678</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I26" t="n">
-        <v>148.9685811771479</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>49.65101377519441</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S26" t="n">
-        <v>122.8695009220967</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T26" t="n">
-        <v>166.3169052439262</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2180195592479</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24527,22 +24527,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>97.65005853751407</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>113.7856382659095</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.4898938890125</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H27" t="n">
-        <v>103.9912405093721</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I27" t="n">
-        <v>60.0065332792414</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>47.15831191777808</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S27" t="n">
-        <v>155.8274931817798</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T27" t="n">
-        <v>146.9290208388017</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U27" t="n">
-        <v>176.0902156279161</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>149.623570727428</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>117.4803232533106</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H28" t="n">
-        <v>155.8644016137399</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I28" t="n">
-        <v>133.9289553808794</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J28" t="n">
-        <v>42.76279030041251</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R28" t="n">
-        <v>145.11520646895</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S28" t="n">
-        <v>161.7497793501111</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T28" t="n">
-        <v>175.0928090677837</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2799939522351</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>338.7304062220589</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.707320657778</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H29" t="n">
-        <v>323.1357392253592</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I29" t="n">
-        <v>148.9685811771479</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S29" t="n">
-        <v>172.6645079492214</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1119122710508</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U29" t="n">
-        <v>201.4230125321232</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>336.4429316289289</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>86.6948868618878</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H30" t="n">
-        <v>103.9912405093721</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I30" t="n">
-        <v>60.0065332792414</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>47.15831191777808</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S30" t="n">
-        <v>155.8274931817798</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T30" t="n">
-        <v>196.7240278659264</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U30" t="n">
-        <v>176.0902156279161</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V30" t="n">
-        <v>188.9411449599339</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>155.8876887501797</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2753302804353</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H31" t="n">
-        <v>155.8644016137399</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I31" t="n">
-        <v>133.9289553808794</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J31" t="n">
-        <v>42.76279030041251</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>26.23619181829162</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R31" t="n">
-        <v>145.11520646895</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S31" t="n">
-        <v>167.6853441877443</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T31" t="n">
-        <v>175.0928090677837</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U31" t="n">
-        <v>236.4849869251104</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.7896463249701</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>315.4778847438829</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9123136306533</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H32" t="n">
-        <v>273.3407321982345</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I32" t="n">
-        <v>148.9685811771479</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>5.791571585703004</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S32" t="n">
-        <v>172.6645079492214</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1119122710508</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2180195592479</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>86.6948868618878</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H33" t="n">
-        <v>60.13179831988068</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I33" t="n">
-        <v>60.0065332792414</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>47.15831191777808</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S33" t="n">
-        <v>155.8274931817798</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T33" t="n">
-        <v>146.9290208388017</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8852226550407</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V33" t="n">
-        <v>183.0055801223006</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25086,19 +25086,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>101.5616058334398</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2753302804353</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H34" t="n">
-        <v>155.8644016137399</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I34" t="n">
-        <v>133.9289553808794</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J34" t="n">
-        <v>42.76279030041251</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>26.23619181829162</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R34" t="n">
-        <v>145.11520646895</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S34" t="n">
-        <v>211.5447863772357</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T34" t="n">
-        <v>224.8878160949084</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2799939522351</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>236.7279913094663</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>175.9146483619125</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>168.7896463249701</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.707320657778</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H35" t="n">
-        <v>323.1357392253592</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I35" t="n">
-        <v>148.9685811771479</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>49.65101377519441</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S35" t="n">
-        <v>122.8695009220967</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T35" t="n">
-        <v>166.3169052439262</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U35" t="n">
-        <v>201.4230125321232</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V35" t="n">
-        <v>283.8928162806435</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>128.8490567988243</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.4898938890125</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H36" t="n">
-        <v>103.9912405093721</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I36" t="n">
-        <v>60.0065332792414</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>47.15831191777808</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S36" t="n">
-        <v>155.8274931817798</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T36" t="n">
-        <v>196.7240278659264</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U36" t="n">
-        <v>176.0902156279161</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>201.8999761337949</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>155.9779781763528</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25317,25 +25317,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>98.82046599108767</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>96.63895561944449</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2753302804353</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H37" t="n">
-        <v>155.8644016137399</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I37" t="n">
-        <v>133.9289553808794</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J37" t="n">
-        <v>42.76279030041251</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.23619181829162</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R37" t="n">
-        <v>145.11520646895</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S37" t="n">
-        <v>211.5447863772357</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T37" t="n">
-        <v>224.8878160949084</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U37" t="n">
-        <v>242.4205517627437</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>236.7279913094663</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>332.9388346363559</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>332.1353630451371</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>363.01660355222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.707320657778</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H38" t="n">
-        <v>323.1357392253592</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I38" t="n">
-        <v>99.17357415002326</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>49.65101377519441</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S38" t="n">
-        <v>172.6645079492214</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T38" t="n">
-        <v>216.1119122710508</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2180195592479</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25478,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>113.7856382659095</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.4898938890125</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H39" t="n">
-        <v>103.9912405093721</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I39" t="n">
-        <v>60.0065332792414</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>47.15831191777808</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S39" t="n">
-        <v>155.8274931817798</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T39" t="n">
-        <v>146.9290208388017</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8852226550407</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>201.8999761337949</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>155.9779781763528</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2753302804353</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H40" t="n">
-        <v>155.8644016137399</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I40" t="n">
-        <v>133.9289553808794</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J40" t="n">
-        <v>42.76279030041251</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>26.23619181829162</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R40" t="n">
-        <v>145.11520646895</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S40" t="n">
-        <v>161.7497793501111</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T40" t="n">
-        <v>175.0928090677837</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2799939522351</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>175.9146483619125</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>174.7252111626034</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.707320657778</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H41" t="n">
-        <v>323.1357392253592</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I41" t="n">
-        <v>104.9651457357263</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S41" t="n">
-        <v>172.6645079492214</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1119122710508</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2180195592479</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V41" t="n">
-        <v>277.9572514430103</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>299.4459616902883</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>86.6948868618878</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H42" t="n">
-        <v>54.19623348224739</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I42" t="n">
-        <v>60.0065332792414</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.298869728286668</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S42" t="n">
-        <v>155.8274931817798</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T42" t="n">
-        <v>196.7240278659264</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U42" t="n">
-        <v>176.0902156279161</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.2753302804353</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H43" t="n">
-        <v>155.8644016137399</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I43" t="n">
-        <v>133.9289553808794</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J43" t="n">
-        <v>42.76279030041251</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R43" t="n">
-        <v>95.32019944182528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S43" t="n">
-        <v>161.7497793501111</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T43" t="n">
-        <v>175.0928090677837</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2799939522351</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>208.0864050178374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>357.0810387145867</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9123136306533</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H44" t="n">
-        <v>323.1357392253592</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I44" t="n">
-        <v>148.9685811771479</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>49.65101377519441</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S44" t="n">
-        <v>122.8695009220967</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1119122710508</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U44" t="n">
-        <v>207.3585773697565</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.4898938890125</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H45" t="n">
-        <v>103.9912405093721</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I45" t="n">
-        <v>60.0065332792414</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S45" t="n">
-        <v>155.8274931817798</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T45" t="n">
-        <v>196.7240278659264</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8852226550407</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>201.8999761337949</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>155.9779781763528</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>159.1865584784663</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2753302804353</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H46" t="n">
-        <v>155.8644016137399</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I46" t="n">
-        <v>133.9289553808794</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J46" t="n">
-        <v>42.76279030041251</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R46" t="n">
-        <v>127.4919560977502</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S46" t="n">
-        <v>161.7497793501111</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T46" t="n">
-        <v>175.0928090677837</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2799939522351</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>175.9146483619125</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>361897.5871131801</v>
+        <v>363052.1115026793</v>
       </c>
     </row>
     <row r="3">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>404960.5090989773</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>404960.5090989773</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>404960.5090989774</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>404960.5090989773</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>404960.5090989773</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>404960.5090989773</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>404960.5090989773</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>404960.5090989773</v>
+        <v>359954.9385771643</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70529.94656182195</v>
+        <v>70000.0211110927</v>
       </c>
       <c r="C2" t="n">
-        <v>70529.94656182195</v>
+        <v>70529.94656182197</v>
       </c>
       <c r="D2" t="n">
         <v>70893.33345427414</v>
@@ -26325,37 +26325,37 @@
         <v>71864.55661388767</v>
       </c>
       <c r="F2" t="n">
+        <v>71864.55661388766</v>
+      </c>
+      <c r="G2" t="n">
+        <v>71864.55661388766</v>
+      </c>
+      <c r="H2" t="n">
+        <v>71864.55661388766</v>
+      </c>
+      <c r="I2" t="n">
         <v>71864.55661388767</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>71864.55661388767</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>71864.55661388767</v>
       </c>
-      <c r="I2" t="n">
-        <v>81765.52377455859</v>
-      </c>
-      <c r="J2" t="n">
-        <v>81765.52377455859</v>
-      </c>
-      <c r="K2" t="n">
-        <v>81765.52377455859</v>
-      </c>
       <c r="L2" t="n">
-        <v>81765.52377455859</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="M2" t="n">
-        <v>81765.52377455861</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="N2" t="n">
-        <v>81765.52377455861</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="O2" t="n">
-        <v>81765.52377455863</v>
+        <v>71864.55661388767</v>
       </c>
       <c r="P2" t="n">
-        <v>81765.52377455862</v>
+        <v>71864.55661388767</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251306.7941829319</v>
+        <v>226237.0968787037</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23690.54434158194</v>
       </c>
       <c r="D3" t="n">
         <v>15278.63930251696</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66341.74384831298</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21002.84539770707</v>
+        <v>24718.67613239747</v>
       </c>
       <c r="C4" t="n">
         <v>21002.84539770707</v>
@@ -26438,28 +26438,28 @@
         <v>12609.58161003999</v>
       </c>
       <c r="I4" t="n">
-        <v>9803.65733773385</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="J4" t="n">
-        <v>9803.657337733852</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="K4" t="n">
-        <v>9803.65733773385</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="L4" t="n">
-        <v>9803.657337733852</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="M4" t="n">
-        <v>9803.657337733852</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="N4" t="n">
-        <v>9803.657337733852</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="O4" t="n">
-        <v>9803.65733773385</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="P4" t="n">
-        <v>9803.657337733852</v>
+        <v>12609.58161003999</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39312.96135688073</v>
+        <v>38745.80483114667</v>
       </c>
       <c r="C5" t="n">
         <v>39312.96135688073</v>
@@ -26490,28 +26490,28 @@
         <v>7113.737365803781</v>
       </c>
       <c r="I5" t="n">
-        <v>11679.08319048216</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="J5" t="n">
-        <v>11679.08319048216</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="K5" t="n">
-        <v>11679.08319048216</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="L5" t="n">
-        <v>11679.08319048216</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="M5" t="n">
-        <v>11679.08319048216</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="N5" t="n">
-        <v>11679.08319048216</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="O5" t="n">
-        <v>11679.08319048216</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="P5" t="n">
-        <v>11679.08319048216</v>
+        <v>7113.737365803781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-255741.2030754863</v>
+        <v>-221170.8276465567</v>
       </c>
       <c r="C6" t="n">
-        <v>-4434.408892554442</v>
+        <v>-14941.25940432663</v>
       </c>
       <c r="D6" t="n">
-        <v>-17273.60151490574</v>
+        <v>-4117.161702029926</v>
       </c>
       <c r="E6" t="n">
-        <v>-703.6227357038861</v>
+        <v>12379.97534020091</v>
       </c>
       <c r="F6" t="n">
-        <v>37603.90644259413</v>
+        <v>50687.50451849891</v>
       </c>
       <c r="G6" t="n">
-        <v>37603.90644259413</v>
+        <v>50687.50451849891</v>
       </c>
       <c r="H6" t="n">
-        <v>37603.90644259413</v>
+        <v>50687.50451849891</v>
       </c>
       <c r="I6" t="n">
-        <v>-19771.2112006976</v>
+        <v>50687.50451849892</v>
       </c>
       <c r="J6" t="n">
-        <v>46570.53264761538</v>
+        <v>50687.50451849892</v>
       </c>
       <c r="K6" t="n">
-        <v>46570.53264761538</v>
+        <v>50687.50451849892</v>
       </c>
       <c r="L6" t="n">
-        <v>46570.53264761538</v>
+        <v>50687.50451849892</v>
       </c>
       <c r="M6" t="n">
-        <v>46570.53264761539</v>
+        <v>50687.50451849892</v>
       </c>
       <c r="N6" t="n">
-        <v>46570.53264761539</v>
+        <v>50687.50451849892</v>
       </c>
       <c r="O6" t="n">
-        <v>46570.53264761542</v>
+        <v>50687.50451849892</v>
       </c>
       <c r="P6" t="n">
-        <v>46570.53264761541</v>
+        <v>50687.50451849892</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>260.7963925174648</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="C3" t="n">
         <v>260.7963925174648</v>
@@ -26758,28 +26758,28 @@
         <v>326.3182277891643</v>
       </c>
       <c r="I3" t="n">
-        <v>396.859943267568</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="J3" t="n">
-        <v>396.859943267568</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="K3" t="n">
-        <v>396.859943267568</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="L3" t="n">
-        <v>396.859943267568</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="M3" t="n">
-        <v>396.859943267568</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="N3" t="n">
-        <v>396.859943267568</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="O3" t="n">
-        <v>396.859943267568</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="P3" t="n">
-        <v>396.859943267568</v>
+        <v>326.3182277891643</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>260.7963925174648</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26.01635439147063</v>
       </c>
       <c r="D3" t="n">
         <v>17.84024934496279</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>70.54171547840377</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.048427708612923</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H2" t="n">
-        <v>10.7372102708321</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I2" t="n">
-        <v>40.41950923629976</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J2" t="n">
-        <v>88.98399123388617</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K2" t="n">
-        <v>133.3639361394712</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L2" t="n">
-        <v>165.449755626934</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M2" t="n">
-        <v>184.0947318899791</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N2" t="n">
-        <v>187.0735771170756</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O2" t="n">
-        <v>176.6482740895558</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P2" t="n">
-        <v>150.7652150331742</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.2183977184739</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R2" t="n">
-        <v>65.8582970511566</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S2" t="n">
-        <v>23.89104641001701</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T2" t="n">
-        <v>4.589492294453073</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H3" t="n">
-        <v>5.417676003051488</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I3" t="n">
-        <v>19.31369510624622</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J3" t="n">
-        <v>52.99825557753501</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K3" t="n">
-        <v>90.58246021995758</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L3" t="n">
-        <v>121.799296335633</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>133.4662443858011</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P3" t="n">
-        <v>107.1184277115602</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.60583214932356</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R3" t="n">
-        <v>34.82862011770975</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S3" t="n">
-        <v>10.41955398407041</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T3" t="n">
-        <v>2.261055516259907</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H4" t="n">
-        <v>4.181292981673455</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I4" t="n">
-        <v>14.14286010570121</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J4" t="n">
-        <v>33.24940237062826</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K4" t="n">
-        <v>54.63898190775737</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L4" t="n">
-        <v>69.91908529886263</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M4" t="n">
-        <v>73.71987206850237</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N4" t="n">
-        <v>71.96697828272931</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O4" t="n">
-        <v>66.47315263707451</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P4" t="n">
-        <v>56.87926567298936</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.38025527013719</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R4" t="n">
-        <v>21.14588454739968</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S4" t="n">
-        <v>8.195847286163604</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T4" t="n">
-        <v>2.009414827593581</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31287,7 +31287,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J5" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K5" t="n">
         <v>133.3639361394712</v>
@@ -31311,7 +31311,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R5" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S5" t="n">
         <v>23.89104641001701</v>
@@ -31320,7 +31320,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31360,7 +31360,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H6" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I6" t="n">
         <v>19.31369510624622</v>
@@ -31393,7 +31393,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S6" t="n">
-        <v>10.41955398407041</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T6" t="n">
         <v>2.261055516259907</v>
@@ -31445,7 +31445,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J7" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K7" t="n">
         <v>54.63898190775737</v>
@@ -31460,13 +31460,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O7" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P7" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R7" t="n">
         <v>21.14588454739968</v>
@@ -31524,7 +31524,7 @@
         <v>43.1844789362864</v>
       </c>
       <c r="J8" t="n">
-        <v>95.07110224028629</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K8" t="n">
         <v>142.4869376173177</v>
@@ -31597,7 +31597,7 @@
         <v>0.5993316447606933</v>
       </c>
       <c r="H9" t="n">
-        <v>5.788281937557224</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I9" t="n">
         <v>20.63488338320808</v>
@@ -31636,7 +31636,7 @@
         <v>2.415727111995952</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03942971347109827</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5024595181125744</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H10" t="n">
         <v>4.467321897400891</v>
@@ -31682,7 +31682,7 @@
         <v>15.11032805378542</v>
       </c>
       <c r="J10" t="n">
-        <v>35.523887930559</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K10" t="n">
         <v>58.37666037707908</v>
@@ -31703,7 +31703,7 @@
         <v>60.77019480881533</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.07413292122656</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R10" t="n">
         <v>22.59240705986175</v>
@@ -31758,7 +31758,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I11" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J11" t="n">
         <v>111.3401072796808</v>
@@ -31785,7 +31785,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R11" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S11" t="n">
         <v>29.89337332963048</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H12" t="n">
         <v>6.778799411242828</v>
@@ -31864,7 +31864,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R12" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S12" t="n">
         <v>13.03733674233122</v>
@@ -31913,7 +31913,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H13" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I13" t="n">
         <v>17.69607700863206</v>
@@ -31925,10 +31925,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L13" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M13" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N13" t="n">
         <v>90.04778243237713</v>
@@ -31995,7 +31995,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J14" t="n">
         <v>111.3401072796808</v>
@@ -32022,7 +32022,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S14" t="n">
         <v>29.89337332963048</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H15" t="n">
         <v>6.778799411242828</v>
@@ -32101,7 +32101,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S15" t="n">
         <v>13.03733674233122</v>
@@ -32150,7 +32150,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I16" t="n">
         <v>17.69607700863206</v>
@@ -32162,10 +32162,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M16" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N16" t="n">
         <v>90.04778243237713</v>
@@ -32469,7 +32469,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I20" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J20" t="n">
         <v>111.3401072796808</v>
@@ -32496,7 +32496,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R20" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S20" t="n">
         <v>29.89337332963048</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H21" t="n">
         <v>6.778799411242828</v>
@@ -32575,7 +32575,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R21" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S21" t="n">
         <v>13.03733674233122</v>
@@ -32624,7 +32624,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I22" t="n">
         <v>17.69607700863206</v>
@@ -32636,10 +32636,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L22" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M22" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N22" t="n">
         <v>90.04778243237713</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.595416857357056</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H23" t="n">
-        <v>16.33906289040796</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I23" t="n">
-        <v>61.50730839325797</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J23" t="n">
-        <v>135.4090114971086</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K23" t="n">
-        <v>202.9430070690328</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L23" t="n">
-        <v>251.7687457173739</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M23" t="n">
-        <v>280.1412402543974</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>279.2080706237156</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>268.8097920250189</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P23" t="n">
-        <v>229.4229383590166</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q23" t="n">
-        <v>172.2870721549169</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R23" t="n">
-        <v>100.2181041659553</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S23" t="n">
-        <v>36.35556163702395</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T23" t="n">
-        <v>6.983937293080517</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8536232741981653</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H24" t="n">
-        <v>8.244203727124386</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I24" t="n">
-        <v>29.39009957217367</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J24" t="n">
-        <v>80.64867960308193</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L24" t="n">
-        <v>185.3448253911411</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>163.8914845489274</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>181.136719110458</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>192.3912514715691</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>163.0046057545602</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>108.96426215905</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R24" t="n">
-        <v>52.99952223486505</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S24" t="n">
-        <v>15.85567792205802</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T24" t="n">
-        <v>3.440700828895235</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H25" t="n">
-        <v>6.362770893699701</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I25" t="n">
-        <v>21.52151954637894</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J25" t="n">
-        <v>50.59638981626026</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K25" t="n">
-        <v>83.14541106491014</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L25" t="n">
-        <v>106.3975001999641</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M25" t="n">
-        <v>112.1812459305356</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N25" t="n">
-        <v>109.5138266397209</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O25" t="n">
-        <v>101.1537442282647</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P25" t="n">
-        <v>86.55450303658561</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.92585143340277</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R25" t="n">
-        <v>32.17818490821952</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S25" t="n">
-        <v>12.47181165973652</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T25" t="n">
-        <v>3.057773333373064</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.595416857357056</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H26" t="n">
-        <v>16.33906289040796</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I26" t="n">
-        <v>61.50730839325797</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J26" t="n">
-        <v>135.4090114971086</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K26" t="n">
-        <v>202.9430070690328</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L26" t="n">
-        <v>251.7687457173739</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M26" t="n">
-        <v>280.1412402543974</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>279.2080706237156</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>268.8097920250189</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P26" t="n">
-        <v>229.4229383590166</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q26" t="n">
-        <v>172.2870721549169</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R26" t="n">
-        <v>100.2181041659553</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S26" t="n">
-        <v>36.35556163702395</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T26" t="n">
-        <v>6.983937293080517</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8536232741981653</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H27" t="n">
-        <v>8.244203727124386</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I27" t="n">
-        <v>29.39009957217367</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J27" t="n">
-        <v>80.64867960308193</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L27" t="n">
-        <v>185.3448253911411</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>163.8914845489274</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>181.136719110458</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>192.3912514715691</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>163.0046057545602</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>108.96426215905</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R27" t="n">
-        <v>52.99952223486505</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S27" t="n">
-        <v>15.85567792205802</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T27" t="n">
-        <v>3.440700828895235</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H28" t="n">
-        <v>6.362770893699701</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I28" t="n">
-        <v>21.52151954637894</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J28" t="n">
-        <v>50.59638981626026</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K28" t="n">
-        <v>83.14541106491014</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L28" t="n">
-        <v>106.3975001999641</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M28" t="n">
-        <v>112.1812459305356</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N28" t="n">
-        <v>109.5138266397209</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O28" t="n">
-        <v>101.1537442282647</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P28" t="n">
-        <v>86.55450303658561</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.92585143340277</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R28" t="n">
-        <v>32.17818490821952</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S28" t="n">
-        <v>12.47181165973652</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T28" t="n">
-        <v>3.057773333373064</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.595416857357056</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H29" t="n">
-        <v>16.33906289040796</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I29" t="n">
-        <v>61.50730839325797</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J29" t="n">
-        <v>135.4090114971086</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K29" t="n">
-        <v>202.9430070690328</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L29" t="n">
-        <v>251.7687457173739</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M29" t="n">
-        <v>280.1412402543974</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>279.2080706237156</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>268.8097920250189</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P29" t="n">
-        <v>229.4229383590166</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q29" t="n">
-        <v>172.2870721549169</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R29" t="n">
-        <v>100.2181041659553</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S29" t="n">
-        <v>36.35556163702395</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T29" t="n">
-        <v>6.983937293080517</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8536232741981653</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H30" t="n">
-        <v>8.244203727124386</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I30" t="n">
-        <v>29.39009957217367</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J30" t="n">
-        <v>80.64867960308193</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3448253911411</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>191.929040949143</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>153.0991627102424</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>192.3912514715691</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>163.0046057545602</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>108.96426215905</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R30" t="n">
-        <v>52.99952223486505</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S30" t="n">
-        <v>15.85567792205802</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T30" t="n">
-        <v>3.440700828895235</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H31" t="n">
-        <v>6.362770893699701</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I31" t="n">
-        <v>21.52151954637894</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J31" t="n">
-        <v>50.59638981626026</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K31" t="n">
-        <v>83.14541106491014</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L31" t="n">
-        <v>106.3975001999641</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M31" t="n">
-        <v>112.1812459305356</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N31" t="n">
-        <v>109.5138266397209</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O31" t="n">
-        <v>101.1537442282647</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P31" t="n">
-        <v>86.55450303658561</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.92585143340277</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R31" t="n">
-        <v>32.17818490821952</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S31" t="n">
-        <v>12.47181165973652</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T31" t="n">
-        <v>3.057773333373064</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.595416857357056</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H32" t="n">
-        <v>16.33906289040796</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I32" t="n">
-        <v>61.50730839325797</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J32" t="n">
-        <v>135.4090114971086</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K32" t="n">
-        <v>202.9430070690328</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L32" t="n">
-        <v>251.7687457173739</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M32" t="n">
-        <v>280.1412402543974</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>279.2080706237156</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>268.8097920250189</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P32" t="n">
-        <v>229.4229383590166</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q32" t="n">
-        <v>172.2870721549169</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R32" t="n">
-        <v>100.2181041659553</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S32" t="n">
-        <v>36.35556163702395</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T32" t="n">
-        <v>6.983937293080517</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8536232741981653</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H33" t="n">
-        <v>8.244203727124386</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I33" t="n">
-        <v>29.39009957217367</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J33" t="n">
-        <v>80.64867960308193</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L33" t="n">
-        <v>157.3072689909255</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>191.929040949143</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>181.136719110458</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>192.3912514715691</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>163.0046057545602</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>108.96426215905</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R33" t="n">
-        <v>52.99952223486505</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S33" t="n">
-        <v>15.85567792205802</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T33" t="n">
-        <v>3.440700828895235</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H34" t="n">
-        <v>6.362770893699701</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I34" t="n">
-        <v>21.52151954637894</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J34" t="n">
-        <v>50.59638981626026</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K34" t="n">
-        <v>83.14541106491014</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3975001999641</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M34" t="n">
-        <v>112.1812459305356</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5138266397209</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O34" t="n">
-        <v>101.1537442282647</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P34" t="n">
-        <v>86.55450303658561</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.92585143340277</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R34" t="n">
-        <v>32.17818490821952</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S34" t="n">
-        <v>12.47181165973652</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T34" t="n">
-        <v>3.057773333373064</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.595416857357056</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H35" t="n">
-        <v>16.33906289040796</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I35" t="n">
-        <v>61.50730839325797</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J35" t="n">
-        <v>135.4090114971086</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K35" t="n">
-        <v>202.9430070690328</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L35" t="n">
-        <v>251.7687457173739</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M35" t="n">
-        <v>280.1412402543974</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>279.2080706237156</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>268.8097920250189</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P35" t="n">
-        <v>229.4229383590166</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q35" t="n">
-        <v>172.2870721549169</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R35" t="n">
-        <v>100.2181041659553</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S35" t="n">
-        <v>36.35556163702395</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T35" t="n">
-        <v>6.983937293080517</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8536232741981653</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H36" t="n">
-        <v>8.244203727124386</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I36" t="n">
-        <v>29.39009957217367</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J36" t="n">
-        <v>80.64867960308193</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3448253911411</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>191.929040949143</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>181.136719110458</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>192.3912514715691</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>134.9670493543446</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>108.96426215905</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R36" t="n">
-        <v>52.99952223486505</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S36" t="n">
-        <v>15.85567792205802</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T36" t="n">
-        <v>3.440700828895235</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H37" t="n">
-        <v>6.362770893699701</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I37" t="n">
-        <v>21.52151954637894</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J37" t="n">
-        <v>50.59638981626026</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K37" t="n">
-        <v>83.14541106491014</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L37" t="n">
-        <v>106.3975001999641</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M37" t="n">
-        <v>112.1812459305356</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N37" t="n">
-        <v>109.5138266397209</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O37" t="n">
-        <v>101.1537442282647</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P37" t="n">
-        <v>86.55450303658561</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.92585143340277</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R37" t="n">
-        <v>32.17818490821952</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S37" t="n">
-        <v>12.47181165973652</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T37" t="n">
-        <v>3.057773333373064</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.595416857357056</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H38" t="n">
-        <v>16.33906289040796</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I38" t="n">
-        <v>61.50730839325797</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J38" t="n">
-        <v>135.4090114971086</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K38" t="n">
-        <v>202.9430070690328</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L38" t="n">
-        <v>251.7687457173739</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M38" t="n">
-        <v>280.1412402543974</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>279.2080706237156</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>268.8097920250189</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P38" t="n">
-        <v>229.4229383590166</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q38" t="n">
-        <v>172.2870721549169</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R38" t="n">
-        <v>100.2181041659553</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S38" t="n">
-        <v>36.35556163702395</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T38" t="n">
-        <v>6.983937293080517</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8536232741981653</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H39" t="n">
-        <v>8.244203727124386</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I39" t="n">
-        <v>29.39009957217367</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J39" t="n">
-        <v>80.64867960308193</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3448253911411</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>191.929040949143</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>181.136719110458</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>164.3536950713535</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>163.0046057545602</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>108.96426215905</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R39" t="n">
-        <v>52.99952223486505</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S39" t="n">
-        <v>15.85567792205802</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T39" t="n">
-        <v>3.440700828895235</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H40" t="n">
-        <v>6.362770893699701</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I40" t="n">
-        <v>21.52151954637894</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J40" t="n">
-        <v>50.59638981626026</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K40" t="n">
-        <v>83.14541106491014</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L40" t="n">
-        <v>106.3975001999641</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M40" t="n">
-        <v>112.1812459305356</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N40" t="n">
-        <v>109.5138266397209</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O40" t="n">
-        <v>101.1537442282647</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P40" t="n">
-        <v>86.55450303658561</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.92585143340277</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R40" t="n">
-        <v>32.17818490821952</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S40" t="n">
-        <v>12.47181165973652</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T40" t="n">
-        <v>3.057773333373064</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.595416857357056</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H41" t="n">
-        <v>16.33906289040796</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I41" t="n">
-        <v>61.50730839325797</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J41" t="n">
-        <v>135.4090114971086</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K41" t="n">
-        <v>202.9430070690328</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L41" t="n">
-        <v>251.7687457173739</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M41" t="n">
-        <v>280.1412402543974</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>279.2080706237156</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>268.8097920250189</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P41" t="n">
-        <v>229.4229383590166</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q41" t="n">
-        <v>172.2870721549169</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R41" t="n">
-        <v>100.2181041659553</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S41" t="n">
-        <v>36.35556163702395</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T41" t="n">
-        <v>6.983937293080517</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8536232741981653</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H42" t="n">
-        <v>8.244203727124386</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I42" t="n">
-        <v>29.39009957217367</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J42" t="n">
-        <v>80.64867960308193</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L42" t="n">
-        <v>185.3448253911411</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>191.929040949143</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>181.136719110458</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>164.3536950713535</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>163.0046057545602</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>108.96426215905</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R42" t="n">
-        <v>52.99952223486505</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S42" t="n">
-        <v>15.85567792205802</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T42" t="n">
-        <v>3.440700828895235</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H43" t="n">
-        <v>6.362770893699701</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I43" t="n">
-        <v>21.52151954637894</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J43" t="n">
-        <v>50.59638981626026</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K43" t="n">
-        <v>83.14541106491014</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L43" t="n">
-        <v>106.3975001999641</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M43" t="n">
-        <v>112.1812459305356</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N43" t="n">
-        <v>109.5138266397209</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O43" t="n">
-        <v>101.1537442282647</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P43" t="n">
-        <v>86.55450303658561</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.92585143340277</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R43" t="n">
-        <v>32.17818490821952</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S43" t="n">
-        <v>12.47181165973652</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T43" t="n">
-        <v>3.057773333373064</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.595416857357056</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H44" t="n">
-        <v>16.33906289040796</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I44" t="n">
-        <v>61.50730839325797</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J44" t="n">
-        <v>135.4090114971086</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K44" t="n">
-        <v>202.9430070690328</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L44" t="n">
-        <v>251.7687457173739</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M44" t="n">
-        <v>280.1412402543974</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>279.2080706237156</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>268.8097920250189</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P44" t="n">
-        <v>229.4229383590166</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q44" t="n">
-        <v>172.2870721549169</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R44" t="n">
-        <v>100.2181041659553</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S44" t="n">
-        <v>36.35556163702395</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T44" t="n">
-        <v>6.983937293080517</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8536232741981653</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H45" t="n">
-        <v>8.244203727124386</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I45" t="n">
-        <v>29.39009957217367</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J45" t="n">
-        <v>80.64867960308193</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L45" t="n">
-        <v>185.3448253911411</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>163.8914845489274</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>181.136719110458</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>192.3912514715691</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>163.0046057545602</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>108.96426215905</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R45" t="n">
-        <v>52.99952223486505</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S45" t="n">
-        <v>15.85567792205802</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T45" t="n">
-        <v>3.440700828895235</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H46" t="n">
-        <v>6.362770893699701</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I46" t="n">
-        <v>21.52151954637894</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J46" t="n">
-        <v>50.59638981626026</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K46" t="n">
-        <v>83.14541106491014</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L46" t="n">
-        <v>106.3975001999641</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M46" t="n">
-        <v>112.1812459305356</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N46" t="n">
-        <v>109.5138266397209</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O46" t="n">
-        <v>101.1537442282647</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P46" t="n">
-        <v>86.55450303658561</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.92585143340277</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R46" t="n">
-        <v>32.17818490821952</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S46" t="n">
-        <v>12.47181165973652</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T46" t="n">
-        <v>3.057773333373064</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36363,22 +36363,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>16.00233074738662</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>42.86418322768714</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>46.79044561126693</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>21.75745062690909</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>29.03019834022993</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>47.78308755128123</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>16.00233074738662</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>42.86418322768714</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>46.79044561126693</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>21.75745062690909</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>29.03019834022993</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>47.78308755128124</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>16.00233074738662</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>31.78075680389464</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>46.79044561126693</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>21.75745062690909</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>29.03019834022993</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>47.78308755128123</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>16.00233074738662</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>42.86418322768714</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>18.75288921105134</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>29.03019834022993</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>47.78308755128124</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>16.00233074738662</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>42.86418322768714</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>46.79044561126693</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.9926419400143358</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>47.78308755128124</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37478,10 +37478,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.78308755128124</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>46.79044561126693</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>21.75745062690909</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>29.03019834022993</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,16 +37703,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>47.78308755128124</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>16.00233074738662</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>31.78075680389464</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>46.79044561126693</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>21.75745062690909</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>29.03019834022993</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>47.78308755128124</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>47.78308755128123</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>46.79044561126693</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>21.75745062690909</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>29.03019834022993</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38183,16 +38183,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>47.78308755128124</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
